--- a/data structure plan.xlsx
+++ b/data structure plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Programs\3DS Pokedex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{949F3544-B383-4CCE-81D6-0034754F720B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8DE223-72BA-489E-AAD3-9682FCC2BA9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{E8F28A6F-6F1D-4032-9281-A373BEA9A053}"/>
+    <workbookView xWindow="-14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{E8F28A6F-6F1D-4032-9281-A373BEA9A053}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -625,9 +625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31FDE52E-1438-4E4D-B985-58AEBB556F45}">
   <dimension ref="A1:K70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>

--- a/data structure plan.xlsx
+++ b/data structure plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Programs\3DS Pokedex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8DE223-72BA-489E-AAD3-9682FCC2BA9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E06DC0C9-E588-40F9-ACA8-EAA4B77636FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{E8F28A6F-6F1D-4032-9281-A373BEA9A053}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{E8F28A6F-6F1D-4032-9281-A373BEA9A053}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -224,9 +224,6 @@
     <t>List of Pokemon it evolves into: Method (1 byte) target (2) method (2) forme target (1) number parameter (1)</t>
   </si>
   <si>
-    <t>List of egg moves Move (2 bytes) each</t>
-  </si>
-  <si>
     <t>List of evolves into it: source (2) forme (1) Method (1 byte) method (2)  number parameter (1)</t>
   </si>
   <si>
@@ -249,6 +246,9 @@
   </si>
   <si>
     <t>internal personal #</t>
+  </si>
+  <si>
+    <t>List of egg moves Move index (2 bytes) each</t>
   </si>
 </sst>
 </file>
@@ -623,39 +623,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31FDE52E-1438-4E4D-B985-58AEBB556F45}">
-  <dimension ref="A1:K70"/>
+  <dimension ref="A1:K69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="83.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>9</v>
       </c>
-      <c r="D1">
-        <f>SUM(C:C)</f>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3">
         <f>A2+1</f>
         <v>1</v>
@@ -667,7 +665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4">
         <f t="shared" ref="A4:A66" si="0">A3+1</f>
         <v>2</v>
@@ -679,19 +677,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -703,31 +701,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>69</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>70</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -739,7 +737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -751,7 +749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -763,7 +761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -775,7 +773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -787,7 +785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -799,7 +797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -811,7 +809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1444,26 +1442,24 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B67" t="s">
-        <v>62</v>
+        <v>61</v>
+      </c>
+      <c r="C67" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B68" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B69" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B70" t="s">
         <v>63</v>
       </c>
     </row>

--- a/data structure plan.xlsx
+++ b/data structure plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Programs\3DS Pokedex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E06DC0C9-E588-40F9-ACA8-EAA4B77636FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66F0BD5-B535-489C-ABEB-9402FA48014B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{E8F28A6F-6F1D-4032-9281-A373BEA9A053}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>Pokemon Data Structure</t>
   </si>
@@ -249,6 +249,12 @@
   </si>
   <si>
     <t>List of egg moves Move index (2 bytes) each</t>
+  </si>
+  <si>
+    <t># levelup moves</t>
+  </si>
+  <si>
+    <t>bytes per entry frome here on</t>
   </si>
 </sst>
 </file>
@@ -623,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31FDE52E-1438-4E4D-B985-58AEBB556F45}">
-  <dimension ref="A1:K69"/>
+  <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -667,7 +673,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4">
-        <f t="shared" ref="A4:A66" si="0">A3+1</f>
+        <f t="shared" ref="A4:A67" si="0">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -695,10 +701,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
@@ -707,10 +713,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
@@ -719,10 +725,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
@@ -731,10 +737,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
@@ -743,7 +749,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -755,7 +761,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -767,7 +773,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -779,7 +785,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -791,7 +797,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -803,7 +809,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -815,7 +821,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -827,7 +833,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -839,7 +845,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -851,14 +857,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="2"/>
-      <c r="K19" s="3"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20">
@@ -866,7 +869,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -881,7 +884,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -896,7 +899,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -911,7 +914,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -926,10 +929,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="2"/>
@@ -941,7 +944,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -956,7 +959,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -971,10 +974,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="2"/>
@@ -986,11 +989,14 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="2"/>
+      <c r="K28" s="3"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29">
@@ -998,7 +1004,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -1010,7 +1016,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -1022,7 +1028,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -1034,7 +1040,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -1046,7 +1052,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -1058,7 +1064,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -1070,7 +1076,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -1082,7 +1088,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -1094,7 +1100,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -1106,7 +1112,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -1118,7 +1124,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -1130,7 +1136,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -1142,7 +1148,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -1154,7 +1160,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -1166,7 +1172,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -1178,7 +1184,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -1190,7 +1196,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -1202,7 +1208,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -1214,7 +1220,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -1226,7 +1232,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -1238,7 +1244,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -1250,7 +1256,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -1262,7 +1268,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -1274,7 +1280,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -1286,7 +1292,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -1298,7 +1304,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -1310,7 +1316,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -1322,7 +1328,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -1334,7 +1340,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -1346,7 +1352,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -1358,7 +1364,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -1370,7 +1376,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -1382,10 +1388,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C61">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
@@ -1394,7 +1400,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C62">
         <v>2</v>
@@ -1406,7 +1412,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C63">
         <v>2</v>
@@ -1418,49 +1424,81 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C64">
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C65">
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="B66" t="s">
+        <v>53</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A67">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B67" t="s">
+      <c r="C67">
+        <v>2</v>
+      </c>
+      <c r="D67" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B68" t="s">
         <v>61</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C68">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B69" t="s">
+        <v>62</v>
+      </c>
+      <c r="C69">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B70" t="s">
+        <v>63</v>
+      </c>
+      <c r="C70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B71" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B68" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B69" t="s">
-        <v>63</v>
+      <c r="C71">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/data structure plan.xlsx
+++ b/data structure plan.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Programs\3DS Pokedex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66F0BD5-B535-489C-ABEB-9402FA48014B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F76F4D4-AFAE-4FA2-B427-56E885CAFE50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{E8F28A6F-6F1D-4032-9281-A373BEA9A053}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Evolution" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="141">
   <si>
     <t>Pokemon Data Structure</t>
   </si>
@@ -221,12 +222,6 @@
     <t>List of levelup moves Move (2 bytes) level (1 byte) each</t>
   </si>
   <si>
-    <t>List of Pokemon it evolves into: Method (1 byte) target (2) method (2) forme target (1) number parameter (1)</t>
-  </si>
-  <si>
-    <t>List of evolves into it: source (2) forme (1) Method (1 byte) method (2)  number parameter (1)</t>
-  </si>
-  <si>
     <t>List of alt formes: forme # (1), method of transformation (1), item or move needed (2)</t>
   </si>
   <si>
@@ -255,6 +250,216 @@
   </si>
   <si>
     <t>bytes per entry frome here on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "Level Up with Friendship",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "Level Up at Morning with Friendship",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "Level Up at Night with Friendship",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "Level Up",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "Trade",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "Trade with Held Item",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                $"Trade for opposite {specieslist[588]}/{specieslist[616]}", // Shelmet&amp;Karrablast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "Used Item",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "Level Up (Attack &gt; Defense)",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "Level Up (Attack = Defense)",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "Level Up (Attack &lt; Defense)",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "Level Up (Random &lt; 5)",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "Level Up (Random &gt; 5)",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                $"Level Up ({specieslist[291]})", // Ninjask</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                $"Level Up ({specieslist[292]})", // Shedinja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "Level Up (Beauty)",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "Used Item (Male)", // Kirlia-&gt;Gallade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "Used Item (Female)", // Snorunt-&gt;Froslass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "Level Up with Held Item (Day)",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "Level Up with Held Item (Night)",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "Level Up with Move",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "Level Up with Party",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "Level Up Male",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "Level Up Female",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "Level Up at Electric",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "Level Up at Forest",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "Level Up at Cold",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "Level Up with 3DS Upside Down",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "Level Up with 50 Affection + MoveType",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                $"{typelist[16]} Type in Party",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "Overworld Rain",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "Level Up (@) at Morning",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "Level Up (@) at Night",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "Level Up Female (SetForm 1)",</t>
+  </si>
+  <si>
+    <t>Level Up</t>
+  </si>
+  <si>
+    <t>Trade</t>
+  </si>
+  <si>
+    <t>Trade with Held Item</t>
+  </si>
+  <si>
+    <t>Used Item</t>
+  </si>
+  <si>
+    <t>Level Up (Attack &gt; Defense)</t>
+  </si>
+  <si>
+    <t>Level Up (Attack = Defense)</t>
+  </si>
+  <si>
+    <t>Level Up (Attack &lt; Defense)</t>
+  </si>
+  <si>
+    <t>Level Up (Beauty)</t>
+  </si>
+  <si>
+    <t>Level Up with Move</t>
+  </si>
+  <si>
+    <t>Level Up Male</t>
+  </si>
+  <si>
+    <t>Level Up Female</t>
+  </si>
+  <si>
+    <t>Level Up at Electric</t>
+  </si>
+  <si>
+    <t>Level Up at Forest</t>
+  </si>
+  <si>
+    <t>Level Up at Cold</t>
+  </si>
+  <si>
+    <t>Level Up with 3DS Upside Down</t>
+  </si>
+  <si>
+    <t>Overworld Rain</t>
+  </si>
+  <si>
+    <t>Level Up (Friendship)</t>
+  </si>
+  <si>
+    <t>Level Up (Friendship, Night)</t>
+  </si>
+  <si>
+    <t>Level Up (Friendship, Day)</t>
+  </si>
+  <si>
+    <t>Trade Karrablast/Shelmet</t>
+  </si>
+  <si>
+    <t>Level Up (Encryption constant &lt;= 4)</t>
+  </si>
+  <si>
+    <t>Level Up (Encryption constant &gt;= 5)</t>
+  </si>
+  <si>
+    <t>Level Up (Branched Evolution, 1st)</t>
+  </si>
+  <si>
+    <t>Level Up (Branched Evolution, 2nd)</t>
+  </si>
+  <si>
+    <t>Used Item (Male)</t>
+  </si>
+  <si>
+    <t>Used Item (Female)</t>
+  </si>
+  <si>
+    <t>Level Up Holding Item (Day)</t>
+  </si>
+  <si>
+    <t>Level Up Holding Item (NIght)</t>
+  </si>
+  <si>
+    <t>Level Up with Pokemon</t>
+  </si>
+  <si>
+    <t>Level Up with 50 Affection + Move Type</t>
+  </si>
+  <si>
+    <t>Type in Party</t>
+  </si>
+  <si>
+    <t>Level Up (Morning)</t>
+  </si>
+  <si>
+    <t>Level Up (Night)</t>
+  </si>
+  <si>
+    <t>List of Pokemon it evolves into: Method (1 byte) target species (2) forme target (1) item/move parameter (2) number parameter (1)</t>
+  </si>
+  <si>
+    <t>List of evolves into it: Method (1 byte) target species (2) forme target (1) item/move parameter (2) number parameter (1)</t>
   </si>
 </sst>
 </file>
@@ -631,13 +836,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31FDE52E-1438-4E4D-B985-58AEBB556F45}">
   <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="83.86328125" customWidth="1"/>
+    <col min="2" max="2" width="101.46484375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
@@ -653,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -665,7 +870,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -677,7 +882,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -689,7 +894,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -701,7 +906,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -725,7 +930,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -737,7 +942,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -1460,18 +1665,18 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C67">
         <v>2</v>
       </c>
       <c r="D67" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B68" t="s">
-        <v>61</v>
+        <v>139</v>
       </c>
       <c r="C68">
         <v>7</v>
@@ -1479,7 +1684,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B69" t="s">
-        <v>62</v>
+        <v>140</v>
       </c>
       <c r="C69">
         <v>7</v>
@@ -1487,7 +1692,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B70" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C70">
         <v>4</v>
@@ -1499,6 +1704,441 @@
       </c>
       <c r="C71">
         <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08AB0973-A846-4BA3-BEDA-C53E73ED6D9C}">
+  <dimension ref="A1:C35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="65.3984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" t="str">
+        <f>TRIM(A1)</f>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" t="str">
+        <f t="shared" ref="B2:B35" si="0">TRIM(A2)</f>
+        <v>"Level Up with Friendship",</v>
+      </c>
+      <c r="C2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" si="0"/>
+        <v>"Level Up at Morning with Friendship",</v>
+      </c>
+      <c r="C3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>"Level Up at Night with Friendship",</v>
+      </c>
+      <c r="C4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>"Level Up",</v>
+      </c>
+      <c r="C5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>"Trade",</v>
+      </c>
+      <c r="C6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>"Trade with Held Item",</v>
+      </c>
+      <c r="C7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>$"Trade for opposite {specieslist[588]}/{specieslist[616]}", // Shelmet&amp;Karrablast</v>
+      </c>
+      <c r="C8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>"Used Item",</v>
+      </c>
+      <c r="C9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>"Level Up (Attack &gt; Defense)",</v>
+      </c>
+      <c r="C10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>"Level Up (Attack = Defense)",</v>
+      </c>
+      <c r="C11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>"Level Up (Attack &lt; Defense)",</v>
+      </c>
+      <c r="C12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>"Level Up (Random &lt; 5)",</v>
+      </c>
+      <c r="C13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>"Level Up (Random &gt; 5)",</v>
+      </c>
+      <c r="C14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>$"Level Up ({specieslist[291]})", // Ninjask</v>
+      </c>
+      <c r="C15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>$"Level Up ({specieslist[292]})", // Shedinja</v>
+      </c>
+      <c r="C16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>"Level Up (Beauty)",</v>
+      </c>
+      <c r="C17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>"Used Item (Male)", // Kirlia-&gt;Gallade</v>
+      </c>
+      <c r="C18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>"Used Item (Female)", // Snorunt-&gt;Froslass</v>
+      </c>
+      <c r="C19" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>"Level Up with Held Item (Day)",</v>
+      </c>
+      <c r="C20" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>"Level Up with Held Item (Night)",</v>
+      </c>
+      <c r="C21" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>"Level Up with Move",</v>
+      </c>
+      <c r="C22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>"Level Up with Party",</v>
+      </c>
+      <c r="C23" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>"Level Up Male",</v>
+      </c>
+      <c r="C24" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>"Level Up Female",</v>
+      </c>
+      <c r="C25" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>"Level Up at Electric",</v>
+      </c>
+      <c r="C26" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>"Level Up at Forest",</v>
+      </c>
+      <c r="C27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>"Level Up at Cold",</v>
+      </c>
+      <c r="C28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>"Level Up with 3DS Upside Down",</v>
+      </c>
+      <c r="C29" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>"Level Up with 50 Affection + MoveType",</v>
+      </c>
+      <c r="C30" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>$"{typelist[16]} Type in Party",</v>
+      </c>
+      <c r="C31" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>"Overworld Rain",</v>
+      </c>
+      <c r="C32" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>"Level Up (@) at Morning",</v>
+      </c>
+      <c r="C33" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" si="0"/>
+        <v>"Level Up (@) at Night",</v>
+      </c>
+      <c r="C34" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" si="0"/>
+        <v>"Level Up Female (SetForm 1)",</v>
+      </c>
+      <c r="C35" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/data structure plan.xlsx
+++ b/data structure plan.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Programs\3DS Pokedex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9F925D-4F7D-4340-9494-D0EB96844574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB056D9-B2D1-4312-A58E-C8BCBA1216A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{E8F28A6F-6F1D-4032-9281-A373BEA9A053}"/>
+    <workbookView xWindow="-14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{E8F28A6F-6F1D-4032-9281-A373BEA9A053}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Evolution" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Evolution" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="174">
   <si>
     <t>Pokemon Data Structure</t>
   </si>
@@ -150,9 +151,6 @@
     <t>TM 89-96</t>
   </si>
   <si>
-    <t>TM 97-100</t>
-  </si>
-  <si>
     <t>Tutor 1-8</t>
   </si>
   <si>
@@ -442,6 +440,126 @@
   </si>
   <si>
     <t>50-51</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>rightmost</t>
+  </si>
+  <si>
+    <t>leftmost</t>
+  </si>
+  <si>
+    <t>SA 1</t>
+  </si>
+  <si>
+    <t>SA 2</t>
+  </si>
+  <si>
+    <t>SD 1</t>
+  </si>
+  <si>
+    <t>SD 2</t>
+  </si>
+  <si>
+    <t>HP 1</t>
+  </si>
+  <si>
+    <t>HP 2</t>
+  </si>
+  <si>
+    <t>AT 1</t>
+  </si>
+  <si>
+    <t>AT 2</t>
+  </si>
+  <si>
+    <t>DEF 1</t>
+  </si>
+  <si>
+    <t>DEF 2</t>
+  </si>
+  <si>
+    <t>TM 97-100, HM 1-4</t>
+  </si>
+  <si>
+    <t>(XYORAS) HM 5-7</t>
+  </si>
+  <si>
+    <t>XYORAS</t>
+  </si>
+  <si>
+    <t>0x38</t>
+  </si>
+  <si>
+    <t>Grass Pledge</t>
+  </si>
+  <si>
+    <t>Fire Pledge</t>
+  </si>
+  <si>
+    <t>Water Pledge</t>
+  </si>
+  <si>
+    <t>Frenzy Plant</t>
+  </si>
+  <si>
+    <t>Blast Burn</t>
+  </si>
+  <si>
+    <t>Hydro Cannon</t>
+  </si>
+  <si>
+    <t>Draco Meteor</t>
+  </si>
+  <si>
+    <t>Dragon Ascent</t>
+  </si>
+  <si>
+    <t>ORAS</t>
+  </si>
+  <si>
+    <t>0x40</t>
+  </si>
+  <si>
+    <t>first 8 tutors</t>
+  </si>
+  <si>
+    <t>0x41</t>
+  </si>
+  <si>
+    <t>Next 7 tutors</t>
+  </si>
+  <si>
+    <t>0x44</t>
+  </si>
+  <si>
+    <t>next 8</t>
+  </si>
+  <si>
+    <t>0x45</t>
+  </si>
+  <si>
+    <t>next 1</t>
+  </si>
+  <si>
+    <t>0x48</t>
+  </si>
+  <si>
+    <t>0x49</t>
+  </si>
+  <si>
+    <t>0x4c</t>
+  </si>
+  <si>
+    <t>0x4d</t>
+  </si>
+  <si>
+    <t>last 7</t>
   </si>
 </sst>
 </file>
@@ -483,7 +601,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -493,6 +611,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -829,10 +952,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31FDE52E-1438-4E4D-B985-58AEBB556F45}">
-  <dimension ref="A1:L71"/>
+  <dimension ref="A1:L72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A5:D6"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -853,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -865,7 +988,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -877,7 +1000,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -889,7 +1012,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="5">
@@ -902,7 +1025,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="5">
@@ -915,7 +1038,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -927,7 +1050,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -939,7 +1062,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -954,7 +1077,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -969,7 +1092,7 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -984,7 +1107,7 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -999,7 +1122,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1014,7 +1137,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1029,7 +1152,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1044,179 +1167,207 @@
         <v>7</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A17" s="8">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A17">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="8">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A18" s="8">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A18">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
+      <c r="D18" s="8">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A19">
+      <c r="A19" s="8">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="8">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A20" s="8">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A20">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="8">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
       <c r="I20" s="1"/>
       <c r="J20" s="2"/>
       <c r="L20" s="3"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A21">
+      <c r="A21" s="8">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
+      <c r="B21" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="8">
+        <v>1</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
       <c r="I21" s="1"/>
       <c r="J21" s="2"/>
       <c r="L21" s="3"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A22">
+      <c r="A22" s="8">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="8">
+        <v>1</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
       <c r="I22" s="1"/>
       <c r="J22" s="2"/>
       <c r="L22" s="3"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A23">
+      <c r="A23" s="8">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="8">
+        <v>1</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
       <c r="I23" s="1"/>
       <c r="J23" s="2"/>
       <c r="L23" s="3"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A24">
+      <c r="A24" s="8">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
+      <c r="B24" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="8">
+        <v>1</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
       <c r="I24" s="1"/>
       <c r="J24" s="2"/>
       <c r="L24" s="3"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A25">
+      <c r="A25" s="8">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D25">
+      <c r="C25" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25" s="8">
         <v>2</v>
       </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
       <c r="I25" s="1"/>
       <c r="J25" s="2"/>
       <c r="L25" s="3"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A26">
+      <c r="A26" s="8">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D26">
+      <c r="C26" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D26" s="8">
         <v>2</v>
       </c>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
       <c r="I26" s="1"/>
       <c r="J26" s="2"/>
       <c r="L26" s="3"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A27">
+      <c r="A27" s="8">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D27">
+      <c r="C27" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" s="8">
         <v>2</v>
       </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
       <c r="I27" s="1"/>
       <c r="J27" s="2"/>
       <c r="L27" s="3"/>
@@ -1230,7 +1381,7 @@
         <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -1248,7 +1399,7 @@
         <v>15</v>
       </c>
       <c r="C29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -1263,7 +1414,7 @@
         <v>16</v>
       </c>
       <c r="C30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -1278,7 +1429,7 @@
         <v>17</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -1293,7 +1444,7 @@
         <v>18</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -1308,7 +1459,7 @@
         <v>19</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -1323,7 +1474,7 @@
         <v>20</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -1338,7 +1489,7 @@
         <v>21</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -1353,7 +1504,7 @@
         <v>22</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -1368,7 +1519,7 @@
         <v>23</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -1383,7 +1534,7 @@
         <v>24</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -1394,10 +1545,13 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D39">
+      <c r="C39" s="6">
+        <v>28</v>
+      </c>
+      <c r="D39" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1406,10 +1560,14 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D40">
+      <c r="C40" s="6" t="str">
+        <f>DEC2HEX(1+HEX2DEC(C39))</f>
+        <v>29</v>
+      </c>
+      <c r="D40" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1418,10 +1576,14 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D41">
+      <c r="C41" s="6" t="str">
+        <f t="shared" ref="C41:C52" si="1">DEC2HEX(1+HEX2DEC(C40))</f>
+        <v>2A</v>
+      </c>
+      <c r="D41" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1430,10 +1592,14 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D42">
+      <c r="C42" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>2B</v>
+      </c>
+      <c r="D42" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1442,10 +1608,14 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D43">
+      <c r="C43" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>2C</v>
+      </c>
+      <c r="D43" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1454,10 +1624,14 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D44">
+      <c r="C44" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>2D</v>
+      </c>
+      <c r="D44" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1466,10 +1640,14 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D45">
+      <c r="C45" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>2E</v>
+      </c>
+      <c r="D45" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1478,10 +1656,14 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D46">
+      <c r="C46" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>2F</v>
+      </c>
+      <c r="D46" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1490,10 +1672,14 @@
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D47">
+      <c r="C47" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="D47" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1502,10 +1688,14 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D48">
+      <c r="C48" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="D48" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1514,10 +1704,14 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D49">
+      <c r="C49" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="D49" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1526,10 +1720,14 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D50">
+      <c r="C50" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="D50" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1538,10 +1736,14 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D51">
+      <c r="B51" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C51" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="D51" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1550,10 +1752,14 @@
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D52">
+      <c r="B52" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C52" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="D52" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1562,10 +1768,11 @@
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D53">
+      <c r="B53" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C53" s="6"/>
+      <c r="D53" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1574,10 +1781,11 @@
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D54">
+      <c r="B54" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C54" s="6"/>
+      <c r="D54" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1586,10 +1794,11 @@
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D55">
+      <c r="B55" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C55" s="6"/>
+      <c r="D55" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1598,10 +1807,11 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D56">
+      <c r="B56" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C56" s="6"/>
+      <c r="D56" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1610,10 +1820,11 @@
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D57">
+      <c r="B57" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C57" s="6"/>
+      <c r="D57" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1622,10 +1833,11 @@
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D58">
+      <c r="B58" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C58" s="6"/>
+      <c r="D58" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1634,10 +1846,11 @@
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D59">
+      <c r="B59" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C59" s="6"/>
+      <c r="D59" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1646,10 +1859,11 @@
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="B60" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D60">
+      <c r="B60" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C60" s="6"/>
+      <c r="D60" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1658,10 +1872,11 @@
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D61">
+      <c r="B61" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C61" s="6"/>
+      <c r="D61" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1670,26 +1885,24 @@
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D62">
-        <v>2</v>
+      <c r="B62" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C62" s="6"/>
+      <c r="D62" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63">
         <f t="shared" si="0"/>
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D63">
         <v>2</v>
@@ -1698,13 +1911,13 @@
     <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D64">
         <v>2</v>
@@ -1713,13 +1926,13 @@
     <row r="65" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A65">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D65">
         <v>2</v>
@@ -1728,62 +1941,81 @@
     <row r="66" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A66">
         <f t="shared" si="0"/>
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D66">
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A67">
-        <f>A66+1</f>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>68</v>
+        <v>52</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="D67">
         <v>2</v>
       </c>
-      <c r="E67" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="114" x14ac:dyDescent="0.45">
+    </row>
+    <row r="68" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A68">
+        <f t="shared" ref="A68" si="2">A67+D67</f>
+        <v>77</v>
+      </c>
       <c r="B68" s="4" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="D68">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="E68" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="114" x14ac:dyDescent="0.45">
       <c r="B69" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D69">
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:5" ht="114" x14ac:dyDescent="0.45">
       <c r="B70" s="4" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="D70">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A71" s="5"/>
+      <c r="B71" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C71" s="6"/>
+      <c r="D71" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="B71" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D71">
+    <row r="72" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A72" s="5"/>
+      <c r="B72" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C72" s="6"/>
+      <c r="D72" s="5">
         <v>3</v>
       </c>
     </row>
@@ -1793,6 +2025,304 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E18019AA-B25E-4AB2-A7EB-12F62F0BBFC5}">
+  <dimension ref="A1:F43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B1" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2">
+        <f>A9+1</f>
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2">
+        <f>2^A2</f>
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3">
+        <f>C2+1</f>
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E9" si="0">2^A3</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <f t="shared" ref="A4:A9" si="1">A3+1</f>
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C9" si="2">C3+1</f>
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="F9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>150</v>
+      </c>
+      <c r="B27" t="s">
+        <v>151</v>
+      </c>
+      <c r="C27" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C28" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C29" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C30" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C31" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C32" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C33" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C34" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>160</v>
+      </c>
+      <c r="B35" t="s">
+        <v>161</v>
+      </c>
+      <c r="C35" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B36" t="s">
+        <v>163</v>
+      </c>
+      <c r="C36" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B37" t="s">
+        <v>165</v>
+      </c>
+      <c r="C37" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B38" t="s">
+        <v>167</v>
+      </c>
+      <c r="C38" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B39" t="s">
+        <v>167</v>
+      </c>
+      <c r="C39" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B40" t="s">
+        <v>169</v>
+      </c>
+      <c r="C40" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B41" t="s">
+        <v>170</v>
+      </c>
+      <c r="C41" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B42" t="s">
+        <v>171</v>
+      </c>
+      <c r="C42" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B43" t="s">
+        <v>172</v>
+      </c>
+      <c r="C43" t="s">
+        <v>173</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08AB0973-A846-4BA3-BEDA-C53E73ED6D9C}">
   <dimension ref="A1:E36"/>
   <sheetViews>
@@ -1812,10 +2342,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1827,10 +2357,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1842,10 +2372,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1857,10 +2387,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -1872,7 +2402,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1884,7 +2414,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -1896,7 +2426,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -1908,7 +2438,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -1920,10 +2450,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -1935,10 +2465,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -1950,10 +2480,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -1965,10 +2495,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -1980,10 +2510,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -1995,10 +2525,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -2010,10 +2540,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -2025,10 +2555,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -2040,7 +2570,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -2052,7 +2582,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -2064,7 +2594,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -2076,7 +2606,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -2088,7 +2618,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C22">
         <v>21</v>
@@ -2100,7 +2630,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -2112,7 +2642,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C24">
         <v>23</v>
@@ -2124,7 +2654,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C25">
         <v>24</v>
@@ -2136,7 +2666,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -2148,7 +2678,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C27">
         <v>26</v>
@@ -2160,7 +2690,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C28">
         <v>27</v>
@@ -2172,10 +2702,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -2187,7 +2717,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C30">
         <v>29</v>
@@ -2199,7 +2729,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C31">
         <v>30</v>
@@ -2211,7 +2741,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C32">
         <v>31</v>
@@ -2223,10 +2753,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C33">
         <v>32</v>
@@ -2238,10 +2768,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B34" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C34">
         <v>33</v>
@@ -2253,10 +2783,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C35">
         <v>34</v>

--- a/data structure plan.xlsx
+++ b/data structure plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Programs\3DS Pokedex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB056D9-B2D1-4312-A58E-C8BCBA1216A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D292D705-B1A9-4D9D-9A64-8BCD72FEB39A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{E8F28A6F-6F1D-4032-9281-A373BEA9A053}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{E8F28A6F-6F1D-4032-9281-A373BEA9A053}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="185">
   <si>
     <t>Pokemon Data Structure</t>
   </si>
@@ -175,12 +175,6 @@
     <t>Tutor 57-64</t>
   </si>
   <si>
-    <t>Tutor 65-72</t>
-  </si>
-  <si>
-    <t>Tutor 73-76</t>
-  </si>
-  <si>
     <t>Index #</t>
   </si>
   <si>
@@ -484,9 +478,6 @@
     <t>DEF 2</t>
   </si>
   <si>
-    <t>TM 97-100, HM 1-4</t>
-  </si>
-  <si>
     <t>(XYORAS) HM 5-7</t>
   </si>
   <si>
@@ -560,6 +551,48 @@
   </si>
   <si>
     <t>last 7</t>
+  </si>
+  <si>
+    <t>TM 97-100, (XYORAS) HM 1-4</t>
+  </si>
+  <si>
+    <t>USUM</t>
+  </si>
+  <si>
+    <t>SM</t>
+  </si>
+  <si>
+    <t>XY</t>
+  </si>
+  <si>
+    <t>Special Tutors</t>
+  </si>
+  <si>
+    <t>0x3c</t>
+  </si>
+  <si>
+    <t>last 4</t>
+  </si>
+  <si>
+    <t>Not XY:</t>
+  </si>
+  <si>
+    <t>Tutor Special (Pledges etc.</t>
+  </si>
+  <si>
+    <t>3d</t>
+  </si>
+  <si>
+    <t>3e</t>
+  </si>
+  <si>
+    <t>3f</t>
+  </si>
+  <si>
+    <t>0x46</t>
+  </si>
+  <si>
+    <t>Tutor 65-72 ( USUM ONLY, not all used)</t>
   </si>
 </sst>
 </file>
@@ -575,18 +608,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -601,16 +628,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -952,10 +975,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31FDE52E-1438-4E4D-B985-58AEBB556F45}">
-  <dimension ref="A1:L72"/>
+  <dimension ref="A1:Q76"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -963,7 +986,7 @@
     <col min="2" max="3" width="17.46484375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
@@ -971,104 +994,107 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3">
         <f>A2+D2</f>
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4">
         <f t="shared" ref="A4:A67" si="0">A3+D3</f>
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="6">
+        <v>2</v>
+      </c>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" s="5">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" s="5">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1077,13 +1103,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1092,13 +1118,13 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1107,13 +1133,13 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1122,13 +1148,13 @@
         <v>5</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1137,13 +1163,13 @@
         <v>6</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1152,13 +1178,13 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1167,212 +1193,212 @@
         <v>7</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="6">
+        <v>1</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A17" s="8">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="9" t="s">
+      <c r="D18" s="6">
+        <v>1</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="6">
+        <v>1</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="6">
+        <v>1</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="2"/>
+      <c r="Q20" s="3"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="6">
+        <v>1</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="2"/>
+      <c r="Q21" s="3"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="6">
+        <v>1</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="2"/>
+      <c r="Q22" s="3"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="6">
+        <v>1</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="2"/>
+      <c r="Q23" s="3"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="6">
+        <v>1</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="2"/>
+      <c r="Q24" s="3"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D17" s="8">
-        <v>1</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A18" s="8">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="9" t="s">
+      <c r="D25" s="6">
+        <v>2</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="2"/>
+      <c r="Q25" s="3"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="D18" s="8">
-        <v>1</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A19" s="8">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="8">
-        <v>1</v>
-      </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A20" s="8">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="8">
-        <v>1</v>
-      </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="2"/>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A21" s="8">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="8">
-        <v>1</v>
-      </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="2"/>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A22" s="8">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="8">
-        <v>1</v>
-      </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="2"/>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A23" s="8">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="8">
-        <v>1</v>
-      </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="2"/>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A24" s="8">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="8">
-        <v>1</v>
-      </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="2"/>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A25" s="8">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="9" t="s">
+      <c r="D26" s="6">
+        <v>2</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="2"/>
+      <c r="Q26" s="3"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D27" s="6">
         <v>2</v>
       </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="2"/>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A26" s="8">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="D26" s="8">
-        <v>2</v>
-      </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="2"/>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A27" s="8">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="D27" s="8">
-        <v>2</v>
-      </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="2"/>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="2"/>
+      <c r="Q27" s="3"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1381,16 +1407,16 @@
         <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
-      <c r="I28" s="1"/>
-      <c r="J28" s="2"/>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="N28" s="1"/>
+      <c r="O28" s="2"/>
+      <c r="Q28" s="3"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1399,13 +1425,13 @@
         <v>15</v>
       </c>
       <c r="C29" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1414,13 +1440,13 @@
         <v>16</v>
       </c>
       <c r="C30" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1429,13 +1455,13 @@
         <v>17</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1444,13 +1470,13 @@
         <v>18</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1459,13 +1485,13 @@
         <v>19</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -1474,465 +1500,677 @@
         <v>20</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A35">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A36">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+        <v>124</v>
+      </c>
+      <c r="D36" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A37">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A38">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D38">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="N38" t="s">
+        <v>147</v>
+      </c>
+      <c r="P38" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A39">
         <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="B39" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="7">
         <v>28</v>
       </c>
-      <c r="D39" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D39" s="6">
+        <v>1</v>
+      </c>
+      <c r="P39" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A40">
         <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="B40" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="6" t="str">
+      <c r="C40" s="7" t="str">
         <f>DEC2HEX(1+HEX2DEC(C39))</f>
         <v>29</v>
       </c>
-      <c r="D40" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D40" s="6">
+        <v>1</v>
+      </c>
+      <c r="P40" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A41">
         <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="B41" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="6" t="str">
+      <c r="C41" s="7" t="str">
         <f t="shared" ref="C41:C52" si="1">DEC2HEX(1+HEX2DEC(C40))</f>
         <v>2A</v>
       </c>
-      <c r="D41" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D41" s="6">
+        <v>1</v>
+      </c>
+      <c r="P41" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A42">
         <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="B42" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="6" t="str">
+      <c r="C42" s="7" t="str">
         <f t="shared" si="1"/>
         <v>2B</v>
       </c>
-      <c r="D42" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D42" s="6">
+        <v>1</v>
+      </c>
+      <c r="P42" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A43">
         <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="B43" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C43" s="6" t="str">
+      <c r="C43" s="7" t="str">
         <f t="shared" si="1"/>
         <v>2C</v>
       </c>
-      <c r="D43" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D43" s="6">
+        <v>1</v>
+      </c>
+      <c r="P43" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A44">
         <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="B44" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C44" s="6" t="str">
+      <c r="C44" s="7" t="str">
         <f t="shared" si="1"/>
         <v>2D</v>
       </c>
-      <c r="D44" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D44" s="6">
+        <v>1</v>
+      </c>
+      <c r="P44" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A45">
         <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="B45" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C45" s="6" t="str">
+      <c r="C45" s="7" t="str">
         <f t="shared" si="1"/>
         <v>2E</v>
       </c>
-      <c r="D45" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D45" s="6">
+        <v>1</v>
+      </c>
+      <c r="F45" t="s">
+        <v>174</v>
+      </c>
+      <c r="G45" t="s">
+        <v>173</v>
+      </c>
+      <c r="I45" t="s">
+        <v>157</v>
+      </c>
+      <c r="N45" t="s">
+        <v>172</v>
+      </c>
+      <c r="O45" t="s">
+        <v>178</v>
+      </c>
+      <c r="P45" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A46">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="B46" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C46" s="6" t="str">
+      <c r="C46" s="7" t="str">
         <f t="shared" si="1"/>
         <v>2F</v>
       </c>
-      <c r="D46" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D46" s="6">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>175</v>
+      </c>
+      <c r="F46" t="s">
+        <v>148</v>
+      </c>
+      <c r="G46" t="s">
+        <v>148</v>
+      </c>
+      <c r="I46" t="s">
+        <v>148</v>
+      </c>
+      <c r="N46" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A47">
         <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="B47" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C47" s="6" t="str">
+      <c r="C47" s="7" t="str">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="D47" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D47" s="6">
+        <v>1</v>
+      </c>
+      <c r="H47" t="s">
+        <v>159</v>
+      </c>
+      <c r="I47" t="s">
+        <v>158</v>
+      </c>
+      <c r="N47" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A48">
         <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="B48" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C48" s="6" t="str">
+      <c r="C48" s="7" t="str">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="D48" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D48" s="6">
+        <v>1</v>
+      </c>
+      <c r="H48" t="s">
+        <v>161</v>
+      </c>
+      <c r="I48" t="s">
+        <v>160</v>
+      </c>
+      <c r="N48" t="s">
+        <v>180</v>
+      </c>
+      <c r="O48" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A49">
         <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="B49" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C49" s="6" t="str">
+      <c r="C49" s="7" t="str">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="D49" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D49" s="6">
+        <v>1</v>
+      </c>
+      <c r="H49" t="s">
+        <v>163</v>
+      </c>
+      <c r="I49" t="s">
+        <v>162</v>
+      </c>
+      <c r="N49" t="s">
+        <v>181</v>
+      </c>
+      <c r="O49" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A50">
         <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="B50" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C50" s="6" t="str">
+      <c r="C50" s="7" t="str">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="D50" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D50" s="6">
+        <v>1</v>
+      </c>
+      <c r="H50" t="s">
+        <v>163</v>
+      </c>
+      <c r="I50" t="s">
+        <v>164</v>
+      </c>
+      <c r="N50" t="s">
+        <v>182</v>
+      </c>
+      <c r="O50" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A51">
         <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C51" s="6" t="str">
+        <v>58</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C51" s="7" t="str">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="D51" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D51" s="6">
+        <v>1</v>
+      </c>
+      <c r="H51" t="s">
+        <v>165</v>
+      </c>
+      <c r="I51" t="s">
+        <v>183</v>
+      </c>
+      <c r="N51">
+        <v>40</v>
+      </c>
+      <c r="O51" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A52">
         <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C52" s="6" t="str">
+        <v>59</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C52" s="7" t="str">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="D52" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D52" s="6">
+        <v>1</v>
+      </c>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="I52" t="s">
+        <v>166</v>
+      </c>
+      <c r="N52">
+        <v>41</v>
+      </c>
+      <c r="O52" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A53">
         <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="B53" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C53" s="7">
+        <v>38</v>
+      </c>
+      <c r="D53" s="6">
+        <v>1</v>
+      </c>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="I53" t="s">
+        <v>167</v>
+      </c>
+      <c r="N53">
+        <v>42</v>
+      </c>
+      <c r="O53" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B54" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C53" s="6"/>
-      <c r="D53" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A54">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="B54" s="6" t="s">
+      <c r="C54" s="7"/>
+      <c r="D54" s="6">
+        <v>1</v>
+      </c>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="I54" t="s">
+        <v>168</v>
+      </c>
+      <c r="N54">
+        <v>43</v>
+      </c>
+      <c r="O54" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A55">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="B55" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C54" s="6"/>
-      <c r="D54" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A55">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="B55" s="6" t="s">
+      <c r="C55" s="7"/>
+      <c r="D55" s="6">
+        <v>1</v>
+      </c>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="I55" t="s">
+        <v>169</v>
+      </c>
+      <c r="N55" t="s">
+        <v>162</v>
+      </c>
+      <c r="O55" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A56">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B56" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C55" s="6"/>
-      <c r="D55" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A56">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="B56" s="6" t="s">
+      <c r="C56" s="7"/>
+      <c r="D56" s="6">
+        <v>1</v>
+      </c>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A57">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B57" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C56" s="6"/>
-      <c r="D56" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A57">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="B57" s="6" t="s">
+      <c r="C57" s="7"/>
+      <c r="D57" s="6">
+        <v>1</v>
+      </c>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A58">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="B58" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C57" s="6"/>
-      <c r="D57" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A58">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-      <c r="B58" s="6" t="s">
+      <c r="C58" s="7"/>
+      <c r="D58" s="6">
+        <v>1</v>
+      </c>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A59">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="B59" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C58" s="6"/>
-      <c r="D58" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A59">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="B59" s="6" t="s">
+      <c r="C59" s="7"/>
+      <c r="D59" s="6">
+        <v>1</v>
+      </c>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A60">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="B60" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C59" s="6"/>
-      <c r="D59" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A60">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="B60" s="6" t="s">
+      <c r="C60" s="7"/>
+      <c r="D60" s="6">
+        <v>1</v>
+      </c>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A61">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="B61" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C60" s="6"/>
-      <c r="D60" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A61">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C61" s="6"/>
-      <c r="D61" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C61" s="7"/>
+      <c r="D61" s="6">
+        <v>1</v>
+      </c>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+    </row>
+    <row r="62" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A62">
         <f t="shared" si="0"/>
-        <v>66</v>
-      </c>
-      <c r="B62" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C62" s="7"/>
+      <c r="D62" s="6">
+        <v>1</v>
+      </c>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A63">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="B63" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C62" s="6"/>
-      <c r="D62" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A63">
-        <f t="shared" si="0"/>
-        <v>67</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D63">
+      <c r="C63" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D63" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A64">
         <f t="shared" si="0"/>
-        <v>69</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D64">
+        <v>72</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D64" s="6">
         <v>2</v>
       </c>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A65">
         <f t="shared" si="0"/>
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D65">
         <v>2</v>
@@ -1941,13 +2179,13 @@
     <row r="66" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A66">
         <f t="shared" si="0"/>
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D66">
         <v>2</v>
@@ -1956,13 +2194,13 @@
     <row r="67" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A67">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D67">
         <v>2</v>
@@ -1971,21 +2209,21 @@
     <row r="68" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A68">
         <f t="shared" ref="A68" si="2">A67+D67</f>
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D68">
         <v>2</v>
       </c>
       <c r="E68" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="114" x14ac:dyDescent="0.45">
       <c r="B69" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D69">
         <v>7</v>
@@ -1993,31 +2231,59 @@
     </row>
     <row r="70" spans="1:5" ht="114" x14ac:dyDescent="0.45">
       <c r="B70" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D70">
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A71" s="5"/>
-      <c r="B71" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C71" s="6"/>
-      <c r="D71" s="5">
+    <row r="71" spans="1:5" s="6" customFormat="1" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="B71" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C71" s="7"/>
+      <c r="D71" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A72" s="5"/>
-      <c r="B72" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C72" s="6"/>
-      <c r="D72" s="5">
+      <c r="A72" s="6"/>
+      <c r="B72" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C72" s="7"/>
+      <c r="D72" s="6">
         <v>3</v>
       </c>
+      <c r="E72" s="6"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A73" s="6"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A74" s="6"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A75" s="6"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A76" s="6"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2026,21 +2292,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E18019AA-B25E-4AB2-A7EB-12F62F0BBFC5}">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B1" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7" t="s">
-        <v>135</v>
+      <c r="B1" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -2048,21 +2314,21 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C2">
         <f>A9+1</f>
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E2">
         <f>2^A2</f>
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
@@ -2071,14 +2337,14 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C3">
         <f>C2+1</f>
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E9" si="0">2^A3</f>
@@ -2091,14 +2357,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C4">
         <f t="shared" ref="C4:C9" si="2">C3+1</f>
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
@@ -2111,14 +2377,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C5">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
@@ -2131,7 +2397,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C6">
         <f t="shared" si="2"/>
@@ -2148,7 +2414,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C7">
         <f t="shared" si="2"/>
@@ -2165,7 +2431,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C8">
         <f t="shared" si="2"/>
@@ -2182,7 +2448,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C9">
         <f t="shared" si="2"/>
@@ -2193,128 +2459,7 @@
         <v>128</v>
       </c>
       <c r="F9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
-        <v>150</v>
-      </c>
-      <c r="B27" t="s">
-        <v>151</v>
-      </c>
-      <c r="C27" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C28" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C29" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C30" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C31" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C32" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C33" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C34" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
-        <v>160</v>
-      </c>
-      <c r="B35" t="s">
-        <v>161</v>
-      </c>
-      <c r="C35" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B36" t="s">
-        <v>163</v>
-      </c>
-      <c r="C36" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B37" t="s">
-        <v>165</v>
-      </c>
-      <c r="C37" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B38" t="s">
-        <v>167</v>
-      </c>
-      <c r="C38" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B39" t="s">
-        <v>167</v>
-      </c>
-      <c r="C39" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B40" t="s">
-        <v>169</v>
-      </c>
-      <c r="C40" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B41" t="s">
-        <v>170</v>
-      </c>
-      <c r="C41" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B42" t="s">
-        <v>171</v>
-      </c>
-      <c r="C42" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B43" t="s">
-        <v>172</v>
-      </c>
-      <c r="C43" t="s">
-        <v>173</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2342,10 +2487,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2357,10 +2502,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -2372,10 +2517,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -2387,10 +2532,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -2402,7 +2547,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -2414,7 +2559,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -2426,7 +2571,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -2438,7 +2583,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -2450,10 +2595,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -2465,10 +2610,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -2480,10 +2625,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -2495,10 +2640,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -2510,10 +2655,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -2525,10 +2670,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -2540,10 +2685,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -2555,10 +2700,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -2570,7 +2715,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -2582,7 +2727,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -2594,7 +2739,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -2606,7 +2751,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -2618,7 +2763,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C22">
         <v>21</v>
@@ -2630,7 +2775,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -2642,7 +2787,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C24">
         <v>23</v>
@@ -2654,7 +2799,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C25">
         <v>24</v>
@@ -2666,7 +2811,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -2678,7 +2823,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C27">
         <v>26</v>
@@ -2690,7 +2835,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C28">
         <v>27</v>
@@ -2702,10 +2847,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B29" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -2717,7 +2862,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C30">
         <v>29</v>
@@ -2729,7 +2874,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C31">
         <v>30</v>
@@ -2741,7 +2886,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C32">
         <v>31</v>
@@ -2753,10 +2898,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B33" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C33">
         <v>32</v>
@@ -2768,10 +2913,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B34" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C34">
         <v>33</v>
@@ -2783,10 +2928,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B35" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C35">
         <v>34</v>

--- a/data structure plan.xlsx
+++ b/data structure plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Programs\3DS Pokedex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D292D705-B1A9-4D9D-9A64-8BCD72FEB39A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7894ED98-4978-459F-BCA0-922A78138006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{E8F28A6F-6F1D-4032-9281-A373BEA9A053}"/>
   </bookViews>
@@ -16,8 +16,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Evolution" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="190">
   <si>
     <t>Pokemon Data Structure</t>
   </si>
@@ -593,6 +594,21 @@
   </si>
   <si>
     <t>Tutor 65-72 ( USUM ONLY, not all used)</t>
+  </si>
+  <si>
+    <t>0F 01 00 00 0E 01 00 00 01 00 2A 2E 2E 3D 3D 2A 0B 03 2D 00 00 00 01 00 00 00 00 00 00 00 00 1F 14 46 03 01 07 41 00 A6 00 22 00 00 33 00 F8 87 23 86 9B 9A 30 4C 00 28 A9 22 09 00 09 40 00 C8 C0 C4 2A 06 01 02 46 00 45 00 00 00 00 00 00 00 82 00 CC 00 50 00 59 01 40 01 AE 00 13 01 0B 01 85 00 B5 01 B6 01 7C 00 CB 00 CA 00 44 02 04 02 00 FF 00 00 10 21 00 01 2D 00 03 49 00 07 16 00 09 4D 00 0D 4F 00 0D 24 00 0F 4B 00 13 E6 00 15 4A 00 19 26 00 1B 84 01 1F EB 00 21 92 01 25</t>
+  </si>
+  <si>
+    <t>Index # low</t>
+  </si>
+  <si>
+    <t>Index # high</t>
+  </si>
+  <si>
+    <t>internal personal # high</t>
+  </si>
+  <si>
+    <t>internal personal # low</t>
   </si>
 </sst>
 </file>
@@ -628,7 +644,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -637,10 +653,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -975,18 +988,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31FDE52E-1438-4E4D-B985-58AEBB556F45}">
-  <dimension ref="A1:Q76"/>
+  <dimension ref="A1:Q74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="E6" sqref="E6:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="3" width="17.46484375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="7" max="7" width="20.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
@@ -994,206 +1009,195 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>59</v>
+      <c r="B2" t="s">
+        <v>186</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3">
         <f>A2+D2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <f t="shared" ref="A4:A69" si="0">A3+D3</f>
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <f t="shared" ref="A4:A67" si="0">A3+D3</f>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="6">
-        <f t="shared" si="0"/>
+      <c r="C13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" s="6">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" s="6">
-        <f t="shared" si="0"/>
+      <c r="C14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="6">
-        <v>2</v>
-      </c>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>104</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" t="s">
-        <v>105</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" t="s">
-        <v>106</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14">
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" t="s">
-        <v>107</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -1202,102 +1206,86 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A17">
         <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D17" s="6">
-        <v>1</v>
-      </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A18">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="D18" s="6">
-        <v>1</v>
-      </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A19">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="6">
-        <v>1</v>
-      </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A20">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="6">
-        <v>1</v>
-      </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="2"/>
-      <c r="Q20" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A21">
         <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="6">
-        <v>1</v>
-      </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="2"/>
-      <c r="Q21" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A22">
         <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="6">
-        <v>1</v>
-      </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
       <c r="N22" s="1"/>
       <c r="O22" s="2"/>
       <c r="Q22" s="3"/>
@@ -1305,17 +1293,14 @@
     <row r="23" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A23">
         <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="6">
-        <v>1</v>
-      </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
       <c r="N23" s="1"/>
       <c r="O23" s="2"/>
       <c r="Q23" s="3"/>
@@ -1323,17 +1308,14 @@
     <row r="24" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A24">
         <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="6">
-        <v>1</v>
-      </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
       <c r="N24" s="1"/>
       <c r="O24" s="2"/>
       <c r="Q24" s="3"/>
@@ -1341,19 +1323,14 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A25">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D25" s="6">
-        <v>2</v>
-      </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
       <c r="N25" s="1"/>
       <c r="O25" s="2"/>
       <c r="Q25" s="3"/>
@@ -1361,19 +1338,14 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A26">
         <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="D26" s="6">
-        <v>2</v>
-      </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
       <c r="N26" s="1"/>
       <c r="O26" s="2"/>
       <c r="Q26" s="3"/>
@@ -1381,19 +1353,17 @@
     <row r="27" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A27">
         <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="D27" s="6">
+        <v>25</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27">
         <v>2</v>
       </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
       <c r="N27" s="1"/>
       <c r="O27" s="2"/>
       <c r="Q27" s="3"/>
@@ -1401,16 +1371,16 @@
     <row r="28" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A28">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" t="s">
-        <v>116</v>
+        <v>12</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>114</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N28" s="1"/>
       <c r="O28" s="2"/>
@@ -1419,43 +1389,49 @@
     <row r="29" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A29">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" t="s">
-        <v>117</v>
+        <v>13</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="D29">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N29" s="1"/>
+      <c r="O29" s="2"/>
+      <c r="Q29" s="3"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A30">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C30" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
+      <c r="N30" s="1"/>
+      <c r="O30" s="2"/>
+      <c r="Q30" s="3"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A31">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>119</v>
+        <v>15</v>
+      </c>
+      <c r="C31" t="s">
+        <v>117</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -1464,13 +1440,13 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A32">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>120</v>
+        <v>16</v>
+      </c>
+      <c r="C32" t="s">
+        <v>118</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -1479,13 +1455,13 @@
     <row r="33" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A33">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -1494,394 +1470,368 @@
     <row r="34" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A34">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A35">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A36">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D36" s="6">
+        <v>122</v>
+      </c>
+      <c r="D36">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A37">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A38">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D38">
         <v>2</v>
       </c>
-      <c r="N38" t="s">
-        <v>147</v>
-      </c>
-      <c r="P38" t="s">
-        <v>149</v>
-      </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A39">
         <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" s="7">
-        <v>28</v>
-      </c>
-      <c r="D39" s="6">
-        <v>1</v>
-      </c>
-      <c r="P39" t="s">
-        <v>150</v>
+        <v>43</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A40">
         <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C40" s="7" t="str">
-        <f>DEC2HEX(1+HEX2DEC(C39))</f>
-        <v>29</v>
-      </c>
-      <c r="D40" s="6">
-        <v>1</v>
+        <v>44</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="N40" t="s">
+        <v>147</v>
       </c>
       <c r="P40" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A41">
         <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C41" s="7" t="str">
-        <f t="shared" ref="C41:C52" si="1">DEC2HEX(1+HEX2DEC(C40))</f>
-        <v>2A</v>
-      </c>
-      <c r="D41" s="6">
+        <v>46</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="4">
+        <v>28</v>
+      </c>
+      <c r="D41">
         <v>1</v>
       </c>
       <c r="P41" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A42">
         <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C42" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>2B</v>
-      </c>
-      <c r="D42" s="6">
+        <v>47</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" s="4" t="str">
+        <f>DEC2HEX(1+HEX2DEC(C41))</f>
+        <v>29</v>
+      </c>
+      <c r="D42">
         <v>1</v>
       </c>
       <c r="P42" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A43">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C43" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>2C</v>
-      </c>
-      <c r="D43" s="6">
+        <v>48</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" s="4" t="str">
+        <f t="shared" ref="C43:C54" si="1">DEC2HEX(1+HEX2DEC(C42))</f>
+        <v>2A</v>
+      </c>
+      <c r="D43">
         <v>1</v>
       </c>
       <c r="P43" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A44">
         <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C44" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>2D</v>
-      </c>
-      <c r="D44" s="6">
+        <v>49</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2B</v>
+      </c>
+      <c r="D44">
         <v>1</v>
       </c>
       <c r="P44" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A45">
         <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C45" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>2E</v>
-      </c>
-      <c r="D45" s="6">
-        <v>1</v>
-      </c>
-      <c r="F45" t="s">
-        <v>174</v>
-      </c>
-      <c r="G45" t="s">
-        <v>173</v>
-      </c>
-      <c r="I45" t="s">
-        <v>157</v>
-      </c>
-      <c r="N45" t="s">
-        <v>172</v>
-      </c>
-      <c r="O45" t="s">
-        <v>178</v>
+        <v>50</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2C</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
       </c>
       <c r="P45" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A46">
         <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C46" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>2F</v>
-      </c>
-      <c r="D46" s="6">
-        <v>1</v>
-      </c>
-      <c r="E46" t="s">
-        <v>175</v>
-      </c>
-      <c r="F46" t="s">
-        <v>148</v>
-      </c>
-      <c r="G46" t="s">
-        <v>148</v>
-      </c>
-      <c r="I46" t="s">
-        <v>148</v>
-      </c>
-      <c r="N46" t="s">
-        <v>148</v>
+        <v>51</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2D</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="P46" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A47">
         <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C47" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="D47" s="6">
-        <v>1</v>
-      </c>
-      <c r="H47" t="s">
-        <v>159</v>
+        <v>52</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2E</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="F47" t="s">
+        <v>174</v>
+      </c>
+      <c r="G47" t="s">
+        <v>173</v>
       </c>
       <c r="I47" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N47" t="s">
-        <v>176</v>
+        <v>172</v>
+      </c>
+      <c r="O47" t="s">
+        <v>178</v>
+      </c>
+      <c r="P47" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A48">
         <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C48" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="D48" s="6">
-        <v>1</v>
-      </c>
-      <c r="H48" t="s">
-        <v>161</v>
+        <v>53</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C48" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2F</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>175</v>
+      </c>
+      <c r="F48" t="s">
+        <v>148</v>
+      </c>
+      <c r="G48" t="s">
+        <v>148</v>
       </c>
       <c r="I48" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="N48" t="s">
-        <v>180</v>
-      </c>
-      <c r="O48" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A49">
         <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C49" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="D49" s="6">
+        <v>54</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="D49">
         <v>1</v>
       </c>
       <c r="H49" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="I49" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="N49" t="s">
-        <v>181</v>
-      </c>
-      <c r="O49" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A50">
         <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C50" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="D50" s="6">
+        <v>55</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="D50">
         <v>1</v>
       </c>
       <c r="H50" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I50" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="N50" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O50" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A51">
         <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="C51" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
-      <c r="D51" s="6">
+        <v>56</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C51" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="D51">
         <v>1</v>
       </c>
       <c r="H51" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I51" t="s">
-        <v>183</v>
-      </c>
-      <c r="N51">
-        <v>40</v>
+        <v>162</v>
+      </c>
+      <c r="N51" t="s">
+        <v>181</v>
       </c>
       <c r="O51" t="s">
         <v>163</v>
@@ -1890,29 +1840,26 @@
     <row r="52" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A52">
         <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="C52" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="D52" s="6">
-        <v>1</v>
-      </c>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C52" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="H52" t="s">
         <v>163</v>
       </c>
       <c r="I52" t="s">
-        <v>166</v>
-      </c>
-      <c r="N52">
-        <v>41</v>
+        <v>164</v>
+      </c>
+      <c r="N52" t="s">
+        <v>182</v>
       </c>
       <c r="O52" t="s">
         <v>163</v>
@@ -1921,28 +1868,26 @@
     <row r="53" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A53">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="C53" s="7">
-        <v>38</v>
-      </c>
-      <c r="D53" s="6">
-        <v>1</v>
-      </c>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6" t="s">
-        <v>163</v>
+        <v>58</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C53" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="H53" t="s">
+        <v>165</v>
       </c>
       <c r="I53" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="N53">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O53" t="s">
         <v>163</v>
@@ -1951,226 +1896,200 @@
     <row r="54" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A54">
         <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C54" s="7"/>
-      <c r="D54" s="6">
-        <v>1</v>
-      </c>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C54" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="H54" t="s">
         <v>163</v>
       </c>
       <c r="I54" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N54">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O54" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A55">
         <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-      <c r="B55" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C55" s="4">
         <v>38</v>
       </c>
-      <c r="C55" s="7"/>
-      <c r="D55" s="6">
-        <v>1</v>
-      </c>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6" t="s">
-        <v>170</v>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="H55" t="s">
+        <v>163</v>
       </c>
       <c r="I55" t="s">
-        <v>169</v>
-      </c>
-      <c r="N55" t="s">
-        <v>162</v>
+        <v>167</v>
+      </c>
+      <c r="N55">
+        <v>42</v>
       </c>
       <c r="O55" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A56">
         <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C56" s="7"/>
-      <c r="D56" s="6">
-        <v>1</v>
-      </c>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
+        <v>61</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="H56" t="s">
+        <v>163</v>
+      </c>
+      <c r="I56" t="s">
+        <v>168</v>
+      </c>
+      <c r="N56">
+        <v>43</v>
+      </c>
+      <c r="O56" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A57">
         <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C57" s="7"/>
-      <c r="D57" s="6">
-        <v>1</v>
-      </c>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
+        <v>62</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="H57" t="s">
+        <v>170</v>
+      </c>
+      <c r="I57" t="s">
+        <v>169</v>
+      </c>
+      <c r="N57" t="s">
+        <v>162</v>
+      </c>
+      <c r="O57" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A58">
         <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C58" s="7"/>
-      <c r="D58" s="6">
-        <v>1</v>
-      </c>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
+        <v>63</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A59">
         <f t="shared" si="0"/>
-        <v>66</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C59" s="7"/>
-      <c r="D59" s="6">
-        <v>1</v>
-      </c>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
+        <v>64</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A60">
         <f t="shared" si="0"/>
-        <v>67</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C60" s="7"/>
-      <c r="D60" s="6">
-        <v>1</v>
-      </c>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
+        <v>65</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A61">
         <f t="shared" si="0"/>
-        <v>68</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C61" s="7"/>
-      <c r="D61" s="6">
-        <v>1</v>
-      </c>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-    </row>
-    <row r="62" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+        <v>66</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A62">
         <f t="shared" si="0"/>
-        <v>69</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="C62" s="7"/>
-      <c r="D62" s="6">
-        <v>1</v>
-      </c>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
+        <v>67</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A63">
         <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D63" s="6">
-        <v>2</v>
-      </c>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.45">
+        <v>68</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A64">
         <f t="shared" si="0"/>
-        <v>72</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D64" s="6">
-        <v>2</v>
-      </c>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
+        <v>69</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A65">
         <f t="shared" si="0"/>
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D65">
         <v>2</v>
@@ -2179,13 +2098,13 @@
     <row r="66" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A66">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D66">
         <v>2</v>
@@ -2194,96 +2113,94 @@
     <row r="67" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A67">
         <f t="shared" si="0"/>
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D67">
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A68">
-        <f t="shared" ref="A68" si="2">A67+D67</f>
-        <v>80</v>
+        <f t="shared" si="0"/>
+        <v>76</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>65</v>
+        <v>49</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>130</v>
       </c>
       <c r="D68">
         <v>2</v>
       </c>
-      <c r="E68" t="s">
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A69">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A70">
+        <f t="shared" ref="A70" si="2">A69+D69</f>
+        <v>80</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+      <c r="E70" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="114" x14ac:dyDescent="0.45">
-      <c r="B69" s="4" t="s">
+    <row r="71" spans="1:5" ht="114" x14ac:dyDescent="0.45">
+      <c r="B71" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D69">
+      <c r="D71">
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="114" x14ac:dyDescent="0.45">
-      <c r="B70" s="4" t="s">
+    <row r="72" spans="1:5" ht="114" x14ac:dyDescent="0.45">
+      <c r="B72" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D70">
+      <c r="D72">
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:5" s="6" customFormat="1" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="B71" s="7" t="s">
+    <row r="73" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="B73" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C71" s="7"/>
-      <c r="D71" s="6">
+      <c r="D73">
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A72" s="6"/>
-      <c r="B72" s="7" t="s">
+    <row r="74" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="B74" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C72" s="7"/>
-      <c r="D72" s="6">
+      <c r="D74">
         <v>3</v>
       </c>
-      <c r="E72" s="6"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A73" s="6"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A74" s="6"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A75" s="6"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A76" s="6"/>
-      <c r="B76" s="7"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2294,7 +2211,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E18019AA-B25E-4AB2-A7EB-12F62F0BBFC5}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A27" sqref="A27:C44"/>
     </sheetView>
   </sheetViews>
@@ -2954,4 +2871,2388 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BD5D798-47BA-4084-B2D8-ED10569AE8A7}">
+  <dimension ref="A1:I97"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="3" width="21" style="6" customWidth="1"/>
+    <col min="4" max="4" width="19.86328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B1" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" t="str">
+        <f>LEFT(H2,2*B2)</f>
+        <v>0F</v>
+      </c>
+      <c r="E2">
+        <f>HEX2DEC(IF(LEN(D2)=2,D2,MID(D2,3,2)&amp;MID(D2,1,2)))</f>
+        <v>15</v>
+      </c>
+      <c r="H2" t="str">
+        <f>SUBSTITUTE(I2," ","")</f>
+        <v>0F0100000E01000001002A2E2E3D3D2A0B032D0000000100000000000000001F14460301074100A6002200003300F88723869B9A304C0028A9220900094000C8C0C42A060102460045000000000000008200CC00500059014001AE0013010B018500B501B6017C00CB00CA004402040200FF0000102100012D00034900071600094D000D4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+      <c r="I2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" t="str">
+        <f>LEFT(H3,2*B3)</f>
+        <v>01</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E66" si="0">HEX2DEC(IF(LEN(D3)=2,D3,MID(D3,3,2)&amp;MID(D3,1,2)))</f>
+        <v>1</v>
+      </c>
+      <c r="H3" t="str">
+        <f>RIGHT(H2,LEN(H2)-LEN(D2))</f>
+        <v>0100000E01000001002A2E2E3D3D2A0B032D0000000100000000000000001F14460301074100A6002200003300F88723869B9A304C0028A9220900094000C8C0C42A060102460045000000000000008200CC00500059014001AE0013010B018500B501B6017C00CB00CA004402040200FF0000102100012D00034900071600094D000D4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" ref="D4:D67" si="1">LEFT(H4,2*B4)</f>
+        <v>00</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" ref="H4:H67" si="2">RIGHT(H3,LEN(H3)-LEN(D3))</f>
+        <v>00000E01000001002A2E2E3D3D2A0B032D0000000100000000000000001F14460301074100A6002200003300F88723869B9A304C0028A9220900094000C8C0C42A060102460045000000000000008200CC00500059014001AE0013010B018500B501B6017C00CB00CA004402040200FF0000102100012D00034900071600094D000D4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="1"/>
+        <v>00</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="2"/>
+        <v>000E01000001002A2E2E3D3D2A0B032D0000000100000000000000001F14460301074100A6002200003300F88723869B9A304C0028A9220900094000C8C0C42A060102460045000000000000008200CC00500059014001AE0013010B018500B501B6017C00CB00CA004402040200FF0000102100012D00034900071600094D000D4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="1"/>
+        <v>0E</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="2"/>
+        <v>0E01000001002A2E2E3D3D2A0B032D0000000100000000000000001F14460301074100A6002200003300F88723869B9A304C0028A9220900094000C8C0C42A060102460045000000000000008200CC00500059014001AE0013010B018500B501B6017C00CB00CA004402040200FF0000102100012D00034900071600094D000D4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="1"/>
+        <v>0100</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="2"/>
+        <v>01000001002A2E2E3D3D2A0B032D0000000100000000000000001F14460301074100A6002200003300F88723869B9A304C0028A9220900094000C8C0C42A060102460045000000000000008200CC00500059014001AE0013010B018500B501B6017C00CB00CA004402040200FF0000102100012D00034900071600094D000D4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="1"/>
+        <v>00</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="2"/>
+        <v>0001002A2E2E3D3D2A0B032D0000000100000000000000001F14460301074100A6002200003300F88723869B9A304C0028A9220900094000C8C0C42A060102460045000000000000008200CC00500059014001AE0013010B018500B501B6017C00CB00CA004402040200FF0000102100012D00034900071600094D000D4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6">
+        <v>2</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="1"/>
+        <v>0100</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="2"/>
+        <v>01002A2E2E3D3D2A0B032D0000000100000000000000001F14460301074100A6002200003300F88723869B9A304C0028A9220900094000C8C0C42A060102460045000000000000008200CC00500059014001AE0013010B018500B501B6017C00CB00CA004402040200FF0000102100012D00034900071600094D000D4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" s="6">
+        <v>1</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="1"/>
+        <v>2A</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="2"/>
+        <v>2A2E2E3D3D2A0B032D0000000100000000000000001F14460301074100A6002200003300F88723869B9A304C0028A9220900094000C8C0C42A060102460045000000000000008200CC00500059014001AE0013010B018500B501B6017C00CB00CA004402040200FF0000102100012D00034900071600094D000D4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" s="6">
+        <v>1</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="1"/>
+        <v>2E</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="2"/>
+        <v>2E2E3D3D2A0B032D0000000100000000000000001F14460301074100A6002200003300F88723869B9A304C0028A9220900094000C8C0C42A060102460045000000000000008200CC00500059014001AE0013010B018500B501B6017C00CB00CA004402040200FF0000102100012D00034900071600094D000D4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" s="6">
+        <v>1</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="1"/>
+        <v>2E</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="2"/>
+        <v>2E3D3D2A0B032D0000000100000000000000001F14460301074100A6002200003300F88723869B9A304C0028A9220900094000C8C0C42A060102460045000000000000008200CC00500059014001AE0013010B018500B501B6017C00CB00CA004402040200FF0000102100012D00034900071600094D000D4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" s="6">
+        <v>1</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="1"/>
+        <v>3D</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="2"/>
+        <v>3D3D2A0B032D0000000100000000000000001F14460301074100A6002200003300F88723869B9A304C0028A9220900094000C8C0C42A060102460045000000000000008200CC00500059014001AE0013010B018500B501B6017C00CB00CA004402040200FF0000102100012D00034900071600094D000D4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" s="6">
+        <v>1</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="1"/>
+        <v>3D</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="2"/>
+        <v>3D2A0B032D0000000100000000000000001F14460301074100A6002200003300F88723869B9A304C0028A9220900094000C8C0C42A060102460045000000000000008200CC00500059014001AE0013010B018500B501B6017C00CB00CA004402040200FF0000102100012D00034900071600094D000D4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" s="6">
+        <v>1</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="1"/>
+        <v>2A</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="2"/>
+        <v>2A0B032D0000000100000000000000001F14460301074100A6002200003300F88723869B9A304C0028A9220900094000C8C0C42A060102460045000000000000008200CC00500059014001AE0013010B018500B501B6017C00CB00CA004402040200FF0000102100012D00034900071600094D000D4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" s="6">
+        <v>1</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="1"/>
+        <v>0B</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="2"/>
+        <v>0B032D0000000100000000000000001F14460301074100A6002200003300F88723869B9A304C0028A9220900094000C8C0C42A060102460045000000000000008200CC00500059014001AE0013010B018500B501B6017C00CB00CA004402040200FF0000102100012D00034900071600094D000D4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" s="6">
+        <v>1</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="1"/>
+        <v>03</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="2"/>
+        <v>032D0000000100000000000000001F14460301074100A6002200003300F88723869B9A304C0028A9220900094000C8C0C42A060102460045000000000000008200CC00500059014001AE0013010B018500B501B6017C00CB00CA004402040200FF0000102100012D00034900071600094D000D4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" s="6">
+        <v>1</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="1"/>
+        <v>2D</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="2"/>
+        <v>2D0000000100000000000000001F14460301074100A6002200003300F88723869B9A304C0028A9220900094000C8C0C42A060102460045000000000000008200CC00500059014001AE0013010B018500B501B6017C00CB00CA004402040200FF0000102100012D00034900071600094D000D4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" s="6">
+        <v>1</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="1"/>
+        <v>00</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="2"/>
+        <v>0000000100000000000000001F14460301074100A6002200003300F88723869B9A304C0028A9220900094000C8C0C42A060102460045000000000000008200CC00500059014001AE0013010B018500B501B6017C00CB00CA004402040200FF0000102100012D00034900071600094D000D4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" s="6">
+        <v>1</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="1"/>
+        <v>00</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="2"/>
+        <v>00000100000000000000001F14460301074100A6002200003300F88723869B9A304C0028A9220900094000C8C0C42A060102460045000000000000008200CC00500059014001AE0013010B018500B501B6017C00CB00CA004402040200FF0000102100012D00034900071600094D000D4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" s="6">
+        <v>1</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="1"/>
+        <v>00</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="2"/>
+        <v>000100000000000000001F14460301074100A6002200003300F88723869B9A304C0028A9220900094000C8C0C42A060102460045000000000000008200CC00500059014001AE0013010B018500B501B6017C00CB00CA004402040200FF0000102100012D00034900071600094D000D4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22" s="6">
+        <v>1</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="1"/>
+        <v>01</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="2"/>
+        <v>0100000000000000001F14460301074100A6002200003300F88723869B9A304C0028A9220900094000C8C0C42A060102460045000000000000008200CC00500059014001AE0013010B018500B501B6017C00CB00CA004402040200FF0000102100012D00034900071600094D000D4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23" s="6">
+        <v>1</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="1"/>
+        <v>00</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="2"/>
+        <v>00000000000000001F14460301074100A6002200003300F88723869B9A304C0028A9220900094000C8C0C42A060102460045000000000000008200CC00500059014001AE0013010B018500B501B6017C00CB00CA004402040200FF0000102100012D00034900071600094D000D4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24" s="6">
+        <v>1</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="1"/>
+        <v>00</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="2"/>
+        <v>000000000000001F14460301074100A6002200003300F88723869B9A304C0028A9220900094000C8C0C42A060102460045000000000000008200CC00500059014001AE0013010B018500B501B6017C00CB00CA004402040200FF0000102100012D00034900071600094D000D4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25" s="6">
+        <v>2</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="1"/>
+        <v>0000</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="2"/>
+        <v>0000000000001F14460301074100A6002200003300F88723869B9A304C0028A9220900094000C8C0C42A060102460045000000000000008200CC00500059014001AE0013010B018500B501B6017C00CB00CA004402040200FF0000102100012D00034900071600094D000D4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>27</v>
+      </c>
+      <c r="B26" s="6">
+        <v>2</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="1"/>
+        <v>0000</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="2"/>
+        <v>000000001F14460301074100A6002200003300F88723869B9A304C0028A9220900094000C8C0C42A060102460045000000000000008200CC00500059014001AE0013010B018500B501B6017C00CB00CA004402040200FF0000102100012D00034900071600094D000D4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>29</v>
+      </c>
+      <c r="B27" s="6">
+        <v>2</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="1"/>
+        <v>0000</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="2"/>
+        <v>00001F14460301074100A6002200003300F88723869B9A304C0028A9220900094000C8C0C42A060102460045000000000000008200CC00500059014001AE0013010B018500B501B6017C00CB00CA004402040200FF0000102100012D00034900071600094D000D4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>31</v>
+      </c>
+      <c r="B28" s="6">
+        <v>1</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="1"/>
+        <v>1F</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="2"/>
+        <v>1F14460301074100A6002200003300F88723869B9A304C0028A9220900094000C8C0C42A060102460045000000000000008200CC00500059014001AE0013010B018500B501B6017C00CB00CA004402040200FF0000102100012D00034900071600094D000D4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>32</v>
+      </c>
+      <c r="B29" s="6">
+        <v>1</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="2"/>
+        <v>14460301074100A6002200003300F88723869B9A304C0028A9220900094000C8C0C42A060102460045000000000000008200CC00500059014001AE0013010B018500B501B6017C00CB00CA004402040200FF0000102100012D00034900071600094D000D4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>33</v>
+      </c>
+      <c r="B30" s="6">
+        <v>1</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="2"/>
+        <v>460301074100A6002200003300F88723869B9A304C0028A9220900094000C8C0C42A060102460045000000000000008200CC00500059014001AE0013010B018500B501B6017C00CB00CA004402040200FF0000102100012D00034900071600094D000D4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>34</v>
+      </c>
+      <c r="B31" s="6">
+        <v>1</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="1"/>
+        <v>03</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="2"/>
+        <v>0301074100A6002200003300F88723869B9A304C0028A9220900094000C8C0C42A060102460045000000000000008200CC00500059014001AE0013010B018500B501B6017C00CB00CA004402040200FF0000102100012D00034900071600094D000D4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>35</v>
+      </c>
+      <c r="B32" s="6">
+        <v>1</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="1"/>
+        <v>01</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="2"/>
+        <v>01074100A6002200003300F88723869B9A304C0028A9220900094000C8C0C42A060102460045000000000000008200CC00500059014001AE0013010B018500B501B6017C00CB00CA004402040200FF0000102100012D00034900071600094D000D4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>36</v>
+      </c>
+      <c r="B33" s="6">
+        <v>1</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="1"/>
+        <v>07</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="2"/>
+        <v>074100A6002200003300F88723869B9A304C0028A9220900094000C8C0C42A060102460045000000000000008200CC00500059014001AE0013010B018500B501B6017C00CB00CA004402040200FF0000102100012D00034900071600094D000D4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>37</v>
+      </c>
+      <c r="B34" s="6">
+        <v>2</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="1"/>
+        <v>4100</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="2"/>
+        <v>4100A6002200003300F88723869B9A304C0028A9220900094000C8C0C42A060102460045000000000000008200CC00500059014001AE0013010B018500B501B6017C00CB00CA004402040200FF0000102100012D00034900071600094D000D4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>39</v>
+      </c>
+      <c r="B35" s="6">
+        <v>2</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="1"/>
+        <v>A600</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>166</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="2"/>
+        <v>A6002200003300F88723869B9A304C0028A9220900094000C8C0C42A060102460045000000000000008200CC00500059014001AE0013010B018500B501B6017C00CB00CA004402040200FF0000102100012D00034900071600094D000D4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>41</v>
+      </c>
+      <c r="B36" s="6">
+        <v>2</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="1"/>
+        <v>2200</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="2"/>
+        <v>2200003300F88723869B9A304C0028A9220900094000C8C0C42A060102460045000000000000008200CC00500059014001AE0013010B018500B501B6017C00CB00CA004402040200FF0000102100012D00034900071600094D000D4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>43</v>
+      </c>
+      <c r="B37" s="6">
+        <v>1</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="1"/>
+        <v>00</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="2"/>
+        <v>003300F88723869B9A304C0028A9220900094000C8C0C42A060102460045000000000000008200CC00500059014001AE0013010B018500B501B6017C00CB00CA004402040200FF0000102100012D00034900071600094D000D4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>44</v>
+      </c>
+      <c r="B38" s="6">
+        <v>2</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="1"/>
+        <v>3300</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="2"/>
+        <v>3300F88723869B9A304C0028A9220900094000C8C0C42A060102460045000000000000008200CC00500059014001AE0013010B018500B501B6017C00CB00CA004402040200FF0000102100012D00034900071600094D000D4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>46</v>
+      </c>
+      <c r="B39" s="6">
+        <v>1</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="1"/>
+        <v>F8</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>248</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="2"/>
+        <v>F88723869B9A304C0028A9220900094000C8C0C42A060102460045000000000000008200CC00500059014001AE0013010B018500B501B6017C00CB00CA004402040200FF0000102100012D00034900071600094D000D4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>47</v>
+      </c>
+      <c r="B40" s="6">
+        <v>1</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="2"/>
+        <v>8723869B9A304C0028A9220900094000C8C0C42A060102460045000000000000008200CC00500059014001AE0013010B018500B501B6017C00CB00CA004402040200FF0000102100012D00034900071600094D000D4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>48</v>
+      </c>
+      <c r="B41" s="6">
+        <v>1</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="2"/>
+        <v>23869B9A304C0028A9220900094000C8C0C42A060102460045000000000000008200CC00500059014001AE0013010B018500B501B6017C00CB00CA004402040200FF0000102100012D00034900071600094D000D4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>49</v>
+      </c>
+      <c r="B42" s="6">
+        <v>1</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>134</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="2"/>
+        <v>869B9A304C0028A9220900094000C8C0C42A060102460045000000000000008200CC00500059014001AE0013010B018500B501B6017C00CB00CA004402040200FF0000102100012D00034900071600094D000D4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>50</v>
+      </c>
+      <c r="B43" s="6">
+        <v>1</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="1"/>
+        <v>9B</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>155</v>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" si="2"/>
+        <v>9B9A304C0028A9220900094000C8C0C42A060102460045000000000000008200CC00500059014001AE0013010B018500B501B6017C00CB00CA004402040200FF0000102100012D00034900071600094D000D4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>51</v>
+      </c>
+      <c r="B44" s="6">
+        <v>1</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="1"/>
+        <v>9A</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>154</v>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" si="2"/>
+        <v>9A304C0028A9220900094000C8C0C42A060102460045000000000000008200CC00500059014001AE0013010B018500B501B6017C00CB00CA004402040200FF0000102100012D00034900071600094D000D4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>52</v>
+      </c>
+      <c r="B45" s="6">
+        <v>1</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="2"/>
+        <v>304C0028A9220900094000C8C0C42A060102460045000000000000008200CC00500059014001AE0013010B018500B501B6017C00CB00CA004402040200FF0000102100012D00034900071600094D000D4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>53</v>
+      </c>
+      <c r="B46" s="6">
+        <v>1</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="1"/>
+        <v>4C</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" si="2"/>
+        <v>4C0028A9220900094000C8C0C42A060102460045000000000000008200CC00500059014001AE0013010B018500B501B6017C00CB00CA004402040200FF0000102100012D00034900071600094D000D4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>54</v>
+      </c>
+      <c r="B47" s="6">
+        <v>1</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="1"/>
+        <v>00</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="str">
+        <f t="shared" si="2"/>
+        <v>0028A9220900094000C8C0C42A060102460045000000000000008200CC00500059014001AE0013010B018500B501B6017C00CB00CA004402040200FF0000102100012D00034900071600094D000D4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>55</v>
+      </c>
+      <c r="B48" s="6">
+        <v>1</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="H48" t="str">
+        <f t="shared" si="2"/>
+        <v>28A9220900094000C8C0C42A060102460045000000000000008200CC00500059014001AE0013010B018500B501B6017C00CB00CA004402040200FF0000102100012D00034900071600094D000D4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>56</v>
+      </c>
+      <c r="B49" s="6">
+        <v>1</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="1"/>
+        <v>A9</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>169</v>
+      </c>
+      <c r="H49" t="str">
+        <f t="shared" si="2"/>
+        <v>A9220900094000C8C0C42A060102460045000000000000008200CC00500059014001AE0013010B018500B501B6017C00CB00CA004402040200FF0000102100012D00034900071600094D000D4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A50">
+        <v>57</v>
+      </c>
+      <c r="B50" s="6">
+        <v>1</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="H50" t="str">
+        <f t="shared" si="2"/>
+        <v>220900094000C8C0C42A060102460045000000000000008200CC00500059014001AE0013010B018500B501B6017C00CB00CA004402040200FF0000102100012D00034900071600094D000D4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <v>58</v>
+      </c>
+      <c r="B51" s="6">
+        <v>1</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="1"/>
+        <v>09</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="H51" t="str">
+        <f t="shared" si="2"/>
+        <v>0900094000C8C0C42A060102460045000000000000008200CC00500059014001AE0013010B018500B501B6017C00CB00CA004402040200FF0000102100012D00034900071600094D000D4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <v>59</v>
+      </c>
+      <c r="B52" s="6">
+        <v>1</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="1"/>
+        <v>00</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H52" t="str">
+        <f t="shared" si="2"/>
+        <v>00094000C8C0C42A060102460045000000000000008200CC00500059014001AE0013010B018500B501B6017C00CB00CA004402040200FF0000102100012D00034900071600094D000D4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A53">
+        <v>60</v>
+      </c>
+      <c r="B53" s="6">
+        <v>1</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="1"/>
+        <v>09</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="H53" t="str">
+        <f t="shared" si="2"/>
+        <v>094000C8C0C42A060102460045000000000000008200CC00500059014001AE0013010B018500B501B6017C00CB00CA004402040200FF0000102100012D00034900071600094D000D4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <v>61</v>
+      </c>
+      <c r="B54" s="6">
+        <v>1</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="H54" t="str">
+        <f t="shared" si="2"/>
+        <v>4000C8C0C42A060102460045000000000000008200CC00500059014001AE0013010B018500B501B6017C00CB00CA004402040200FF0000102100012D00034900071600094D000D4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A55">
+        <v>62</v>
+      </c>
+      <c r="B55" s="6">
+        <v>1</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" si="1"/>
+        <v>00</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="str">
+        <f t="shared" si="2"/>
+        <v>00C8C0C42A060102460045000000000000008200CC00500059014001AE0013010B018500B501B6017C00CB00CA004402040200FF0000102100012D00034900071600094D000D4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A56">
+        <v>63</v>
+      </c>
+      <c r="B56" s="6">
+        <v>1</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" si="1"/>
+        <v>C8</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="H56" t="str">
+        <f t="shared" si="2"/>
+        <v>C8C0C42A060102460045000000000000008200CC00500059014001AE0013010B018500B501B6017C00CB00CA004402040200FF0000102100012D00034900071600094D000D4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A57">
+        <v>64</v>
+      </c>
+      <c r="B57" s="6">
+        <v>1</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" si="1"/>
+        <v>C0</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="0"/>
+        <v>192</v>
+      </c>
+      <c r="H57" t="str">
+        <f t="shared" si="2"/>
+        <v>C0C42A060102460045000000000000008200CC00500059014001AE0013010B018500B501B6017C00CB00CA004402040200FF0000102100012D00034900071600094D000D4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A58">
+        <v>65</v>
+      </c>
+      <c r="B58" s="6">
+        <v>1</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D58" t="str">
+        <f t="shared" si="1"/>
+        <v>C4</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="0"/>
+        <v>196</v>
+      </c>
+      <c r="H58" t="str">
+        <f t="shared" si="2"/>
+        <v>C42A060102460045000000000000008200CC00500059014001AE0013010B018500B501B6017C00CB00CA004402040200FF0000102100012D00034900071600094D000D4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A59">
+        <v>66</v>
+      </c>
+      <c r="B59" s="6">
+        <v>1</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" si="1"/>
+        <v>2A</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="H59" t="str">
+        <f t="shared" si="2"/>
+        <v>2A060102460045000000000000008200CC00500059014001AE0013010B018500B501B6017C00CB00CA004402040200FF0000102100012D00034900071600094D000D4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A60">
+        <v>67</v>
+      </c>
+      <c r="B60" s="6">
+        <v>1</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D60" t="str">
+        <f t="shared" si="1"/>
+        <v>06</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H60" t="str">
+        <f t="shared" si="2"/>
+        <v>060102460045000000000000008200CC00500059014001AE0013010B018500B501B6017C00CB00CA004402040200FF0000102100012D00034900071600094D000D4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A61">
+        <v>68</v>
+      </c>
+      <c r="B61" s="6">
+        <v>1</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D61" t="str">
+        <f t="shared" si="1"/>
+        <v>01</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H61" t="str">
+        <f t="shared" si="2"/>
+        <v>0102460045000000000000008200CC00500059014001AE0013010B018500B501B6017C00CB00CA004402040200FF0000102100012D00034900071600094D000D4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A62">
+        <v>69</v>
+      </c>
+      <c r="B62" s="6">
+        <v>1</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D62" t="str">
+        <f t="shared" si="1"/>
+        <v>02</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H62" t="str">
+        <f t="shared" si="2"/>
+        <v>02460045000000000000008200CC00500059014001AE0013010B018500B501B6017C00CB00CA004402040200FF0000102100012D00034900071600094D000D4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A63">
+        <v>70</v>
+      </c>
+      <c r="B63" s="6">
+        <v>2</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D63" t="str">
+        <f t="shared" si="1"/>
+        <v>4600</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="H63" t="str">
+        <f t="shared" si="2"/>
+        <v>460045000000000000008200CC00500059014001AE0013010B018500B501B6017C00CB00CA004402040200FF0000102100012D00034900071600094D000D4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A64">
+        <v>72</v>
+      </c>
+      <c r="B64" s="6">
+        <v>2</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D64" t="str">
+        <f t="shared" si="1"/>
+        <v>4500</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="H64" t="str">
+        <f t="shared" si="2"/>
+        <v>45000000000000008200CC00500059014001AE0013010B018500B501B6017C00CB00CA004402040200FF0000102100012D00034900071600094D000D4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A65">
+        <v>74</v>
+      </c>
+      <c r="B65" s="6">
+        <v>2</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D65" t="str">
+        <f t="shared" si="1"/>
+        <v>0000</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="str">
+        <f t="shared" si="2"/>
+        <v>0000000000008200CC00500059014001AE0013010B018500B501B6017C00CB00CA004402040200FF0000102100012D00034900071600094D000D4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A66">
+        <v>76</v>
+      </c>
+      <c r="B66" s="6">
+        <v>2</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D66" t="str">
+        <f t="shared" si="1"/>
+        <v>0000</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="str">
+        <f t="shared" si="2"/>
+        <v>000000008200CC00500059014001AE0013010B018500B501B6017C00CB00CA004402040200FF0000102100012D00034900071600094D000D4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A67">
+        <v>78</v>
+      </c>
+      <c r="B67" s="6">
+        <v>2</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D67" t="str">
+        <f t="shared" si="1"/>
+        <v>0000</v>
+      </c>
+      <c r="E67">
+        <f t="shared" ref="E67:E100" si="3">HEX2DEC(IF(LEN(D67)=2,D67,MID(D67,3,2)&amp;MID(D67,1,2)))</f>
+        <v>0</v>
+      </c>
+      <c r="H67" t="str">
+        <f t="shared" si="2"/>
+        <v>00008200CC00500059014001AE0013010B018500B501B6017C00CB00CA004402040200FF0000102100012D00034900071600094D000D4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A68">
+        <v>80</v>
+      </c>
+      <c r="B68" s="6">
+        <v>2</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D68" t="str">
+        <f t="shared" ref="D68" si="4">LEFT(H68,2*B68)</f>
+        <v>8200</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="3"/>
+        <v>130</v>
+      </c>
+      <c r="F68" t="str">
+        <f>IF(C68&lt;&gt;C69,COUNTIF(C:C,"="&amp;C68),"")</f>
+        <v/>
+      </c>
+      <c r="H68" t="str">
+        <f t="shared" ref="H68" si="5">RIGHT(H67,LEN(H67)-LEN(D67))</f>
+        <v>8200CC00500059014001AE0013010B018500B501B6017C00CB00CA004402040200FF0000102100012D00034900071600094D000D4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A69">
+        <f>A68+B68</f>
+        <v>82</v>
+      </c>
+      <c r="B69" s="6">
+        <v>2</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D69" t="str">
+        <f t="shared" ref="D69:D77" si="6">LEFT(H69,2*B69)</f>
+        <v>CC00</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="3"/>
+        <v>204</v>
+      </c>
+      <c r="F69" t="str">
+        <f t="shared" ref="F69:F82" si="7">IF(C69&lt;&gt;C70,COUNTIF(C:C,"="&amp;C69),"")</f>
+        <v/>
+      </c>
+      <c r="H69" t="str">
+        <f t="shared" ref="H69:H83" si="8">RIGHT(H68,LEN(H68)-LEN(D68))</f>
+        <v>CC00500059014001AE0013010B018500B501B6017C00CB00CA004402040200FF0000102100012D00034900071600094D000D4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A70">
+        <f t="shared" ref="A70:A83" si="9">A69+B69</f>
+        <v>84</v>
+      </c>
+      <c r="B70" s="6">
+        <v>2</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D70" t="str">
+        <f t="shared" si="6"/>
+        <v>5000</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="F70" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H70" t="str">
+        <f t="shared" si="8"/>
+        <v>500059014001AE0013010B018500B501B6017C00CB00CA004402040200FF0000102100012D00034900071600094D000D4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A71">
+        <f t="shared" si="9"/>
+        <v>86</v>
+      </c>
+      <c r="B71" s="6">
+        <v>2</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D71" t="str">
+        <f t="shared" si="6"/>
+        <v>5901</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="3"/>
+        <v>345</v>
+      </c>
+      <c r="F71" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H71" t="str">
+        <f t="shared" si="8"/>
+        <v>59014001AE0013010B018500B501B6017C00CB00CA004402040200FF0000102100012D00034900071600094D000D4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A72">
+        <f t="shared" si="9"/>
+        <v>88</v>
+      </c>
+      <c r="B72" s="6">
+        <v>2</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D72" t="str">
+        <f t="shared" si="6"/>
+        <v>4001</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="3"/>
+        <v>320</v>
+      </c>
+      <c r="F72" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H72" t="str">
+        <f t="shared" si="8"/>
+        <v>4001AE0013010B018500B501B6017C00CB00CA004402040200FF0000102100012D00034900071600094D000D4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A73">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="B73" s="6">
+        <v>2</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D73" t="str">
+        <f t="shared" si="6"/>
+        <v>AE00</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="3"/>
+        <v>174</v>
+      </c>
+      <c r="F73" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H73" t="str">
+        <f t="shared" si="8"/>
+        <v>AE0013010B018500B501B6017C00CB00CA004402040200FF0000102100012D00034900071600094D000D4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A74">
+        <f t="shared" si="9"/>
+        <v>92</v>
+      </c>
+      <c r="B74" s="6">
+        <v>2</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D74" t="str">
+        <f t="shared" si="6"/>
+        <v>1301</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="3"/>
+        <v>275</v>
+      </c>
+      <c r="F74" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H74" t="str">
+        <f t="shared" si="8"/>
+        <v>13010B018500B501B6017C00CB00CA004402040200FF0000102100012D00034900071600094D000D4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A75">
+        <f t="shared" si="9"/>
+        <v>94</v>
+      </c>
+      <c r="B75" s="6">
+        <v>2</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D75" t="str">
+        <f t="shared" si="6"/>
+        <v>0B01</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="3"/>
+        <v>267</v>
+      </c>
+      <c r="F75" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H75" t="str">
+        <f t="shared" si="8"/>
+        <v>0B018500B501B6017C00CB00CA004402040200FF0000102100012D00034900071600094D000D4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A76">
+        <f t="shared" si="9"/>
+        <v>96</v>
+      </c>
+      <c r="B76" s="6">
+        <v>2</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D76" t="str">
+        <f t="shared" si="6"/>
+        <v>8500</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="3"/>
+        <v>133</v>
+      </c>
+      <c r="F76" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H76" t="str">
+        <f t="shared" si="8"/>
+        <v>8500B501B6017C00CB00CA004402040200FF0000102100012D00034900071600094D000D4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A77">
+        <f t="shared" si="9"/>
+        <v>98</v>
+      </c>
+      <c r="B77" s="6">
+        <v>2</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D77" t="str">
+        <f t="shared" si="6"/>
+        <v>B501</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="3"/>
+        <v>437</v>
+      </c>
+      <c r="F77" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H77" t="str">
+        <f t="shared" si="8"/>
+        <v>B501B6017C00CB00CA004402040200FF0000102100012D00034900071600094D000D4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A78">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="B78" s="6">
+        <v>2</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D78" t="str">
+        <f t="shared" ref="D78:D82" si="10">LEFT(H78,2*B78)</f>
+        <v>B601</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="3"/>
+        <v>438</v>
+      </c>
+      <c r="F78" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H78" t="str">
+        <f t="shared" si="8"/>
+        <v>B6017C00CB00CA004402040200FF0000102100012D00034900071600094D000D4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A79">
+        <f t="shared" si="9"/>
+        <v>102</v>
+      </c>
+      <c r="B79" s="6">
+        <v>2</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D79" t="str">
+        <f t="shared" si="10"/>
+        <v>7C00</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="3"/>
+        <v>124</v>
+      </c>
+      <c r="F79" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H79" t="str">
+        <f t="shared" si="8"/>
+        <v>7C00CB00CA004402040200FF0000102100012D00034900071600094D000D4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A80">
+        <f t="shared" si="9"/>
+        <v>104</v>
+      </c>
+      <c r="B80" s="6">
+        <v>2</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D80" t="str">
+        <f t="shared" si="10"/>
+        <v>CB00</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="3"/>
+        <v>203</v>
+      </c>
+      <c r="F80" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H80" t="str">
+        <f t="shared" si="8"/>
+        <v>CB00CA004402040200FF0000102100012D00034900071600094D000D4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A81">
+        <f t="shared" si="9"/>
+        <v>106</v>
+      </c>
+      <c r="B81" s="6">
+        <v>2</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D81" t="str">
+        <f t="shared" si="10"/>
+        <v>CA00</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="3"/>
+        <v>202</v>
+      </c>
+      <c r="F81" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H81" t="str">
+        <f t="shared" si="8"/>
+        <v>CA004402040200FF0000102100012D00034900071600094D000D4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A82">
+        <f t="shared" si="9"/>
+        <v>108</v>
+      </c>
+      <c r="B82" s="6">
+        <v>2</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D82" t="str">
+        <f t="shared" si="10"/>
+        <v>4402</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="3"/>
+        <v>580</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="H82" t="str">
+        <f t="shared" si="8"/>
+        <v>4402040200FF0000102100012D00034900071600094D000D4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A83">
+        <f t="shared" si="9"/>
+        <v>110</v>
+      </c>
+      <c r="B83" s="6">
+        <v>7</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D83" t="str">
+        <f t="shared" ref="D83" si="11">LEFT(H83,2*B83)</f>
+        <v>040200FF000010</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="3"/>
+        <v>516</v>
+      </c>
+      <c r="F83">
+        <f t="shared" ref="F83" si="12">IF(C83&lt;&gt;C84,COUNTIF(C:C,"="&amp;C83),"")</f>
+        <v>1</v>
+      </c>
+      <c r="H83" t="str">
+        <f t="shared" si="8"/>
+        <v>040200FF0000102100012D00034900071600094D000D4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A84">
+        <f t="shared" ref="A84:A85" si="13">A83+B83</f>
+        <v>117</v>
+      </c>
+      <c r="B84" s="6">
+        <v>3</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D84" t="str">
+        <f t="shared" ref="D84:D85" si="14">LEFT(H84,2*B84)</f>
+        <v>210001</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="F84" t="str">
+        <f t="shared" ref="F84:F85" si="15">IF(C84&lt;&gt;C85,COUNTIF(C:C,"="&amp;C84),"")</f>
+        <v/>
+      </c>
+      <c r="H84" t="str">
+        <f>RIGHT(H83,LEN(H83)-LEN(D83))</f>
+        <v>2100012D00034900071600094D000D4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A85">
+        <f t="shared" si="13"/>
+        <v>120</v>
+      </c>
+      <c r="B85" s="6">
+        <v>3</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D85" t="str">
+        <f t="shared" si="14"/>
+        <v>2D0003</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="F85" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="H85" t="str">
+        <f t="shared" ref="H84:H85" si="16">RIGHT(H84,LEN(H84)-LEN(D84))</f>
+        <v>2D00034900071600094D000D4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A86">
+        <f t="shared" ref="A86:A100" si="17">A85+B85</f>
+        <v>123</v>
+      </c>
+      <c r="B86" s="6">
+        <v>3</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D86" t="str">
+        <f t="shared" ref="D86:D100" si="18">LEFT(H86,2*B86)</f>
+        <v>490007</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="3"/>
+        <v>73</v>
+      </c>
+      <c r="F86" t="str">
+        <f t="shared" ref="F86:F100" si="19">IF(C86&lt;&gt;C87,COUNTIF(C:C,"="&amp;C86),"")</f>
+        <v/>
+      </c>
+      <c r="H86" t="str">
+        <f t="shared" ref="H86:H101" si="20">RIGHT(H85,LEN(H85)-LEN(D85))</f>
+        <v>4900071600094D000D4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A87">
+        <f t="shared" si="17"/>
+        <v>126</v>
+      </c>
+      <c r="B87" s="6">
+        <v>3</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D87" t="str">
+        <f t="shared" si="18"/>
+        <v>160009</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="F87" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="H87" t="str">
+        <f t="shared" si="20"/>
+        <v>1600094D000D4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A88">
+        <f t="shared" si="17"/>
+        <v>129</v>
+      </c>
+      <c r="B88" s="6">
+        <v>3</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D88" t="str">
+        <f t="shared" si="18"/>
+        <v>4D000D</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="3"/>
+        <v>77</v>
+      </c>
+      <c r="F88" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="H88" t="str">
+        <f t="shared" si="20"/>
+        <v>4D000D4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A89">
+        <f t="shared" si="17"/>
+        <v>132</v>
+      </c>
+      <c r="B89" s="6">
+        <v>3</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D89" t="str">
+        <f t="shared" si="18"/>
+        <v>4F000D</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="3"/>
+        <v>79</v>
+      </c>
+      <c r="F89" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="H89" t="str">
+        <f t="shared" si="20"/>
+        <v>4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A90">
+        <f t="shared" si="17"/>
+        <v>135</v>
+      </c>
+      <c r="B90" s="6">
+        <v>3</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D90" t="str">
+        <f t="shared" si="18"/>
+        <v>24000F</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="F90" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="H90" t="str">
+        <f t="shared" si="20"/>
+        <v>24000F4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A91">
+        <f t="shared" si="17"/>
+        <v>138</v>
+      </c>
+      <c r="B91" s="6">
+        <v>3</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D91" t="str">
+        <f t="shared" si="18"/>
+        <v>4B0013</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="F91" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="H91" t="str">
+        <f t="shared" si="20"/>
+        <v>4B0013E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A92">
+        <f t="shared" si="17"/>
+        <v>141</v>
+      </c>
+      <c r="B92" s="6">
+        <v>3</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D92" t="str">
+        <f t="shared" si="18"/>
+        <v>E60015</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="3"/>
+        <v>230</v>
+      </c>
+      <c r="F92" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="H92" t="str">
+        <f t="shared" si="20"/>
+        <v>E600154A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A93">
+        <f t="shared" si="17"/>
+        <v>144</v>
+      </c>
+      <c r="B93" s="6">
+        <v>3</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D93" t="str">
+        <f t="shared" si="18"/>
+        <v>4A0019</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="3"/>
+        <v>74</v>
+      </c>
+      <c r="F93" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="H93" t="str">
+        <f t="shared" si="20"/>
+        <v>4A001926001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A94">
+        <f t="shared" si="17"/>
+        <v>147</v>
+      </c>
+      <c r="B94" s="6">
+        <v>3</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D94" t="str">
+        <f t="shared" si="18"/>
+        <v>26001B</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="F94" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="H94" t="str">
+        <f t="shared" si="20"/>
+        <v>26001B84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A95">
+        <f t="shared" si="17"/>
+        <v>150</v>
+      </c>
+      <c r="B95" s="6">
+        <v>3</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D95" t="str">
+        <f t="shared" si="18"/>
+        <v>84011F</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="3"/>
+        <v>388</v>
+      </c>
+      <c r="F95" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="H95" t="str">
+        <f t="shared" si="20"/>
+        <v>84011FEB0021920125</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A96">
+        <f t="shared" si="17"/>
+        <v>153</v>
+      </c>
+      <c r="B96" s="6">
+        <v>3</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D96" t="str">
+        <f t="shared" si="18"/>
+        <v>EB0021</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="3"/>
+        <v>235</v>
+      </c>
+      <c r="F96" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="H96" t="str">
+        <f t="shared" si="20"/>
+        <v>EB0021920125</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A97">
+        <f t="shared" si="17"/>
+        <v>156</v>
+      </c>
+      <c r="B97" s="6">
+        <v>3</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D97" t="str">
+        <f t="shared" si="18"/>
+        <v>920125</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="3"/>
+        <v>402</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="19"/>
+        <v>15</v>
+      </c>
+      <c r="H97" t="str">
+        <f t="shared" si="20"/>
+        <v>920125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data structure plan.xlsx
+++ b/data structure plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Programs\3DS Pokedex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7894ED98-4978-459F-BCA0-922A78138006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7370F959-5EFE-4291-8F67-A0E6BFEDA9D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{E8F28A6F-6F1D-4032-9281-A373BEA9A053}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{E8F28A6F-6F1D-4032-9281-A373BEA9A053}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="236">
   <si>
     <t>Pokemon Data Structure</t>
   </si>
@@ -380,15 +380,6 @@
     <t>8</t>
   </si>
   <si>
-    <t>C-D</t>
-  </si>
-  <si>
-    <t>E-F</t>
-  </si>
-  <si>
-    <t>10 to 11</t>
-  </si>
-  <si>
     <t>12</t>
   </si>
   <si>
@@ -413,30 +404,9 @@
     <t>19</t>
   </si>
   <si>
-    <t>1A</t>
-  </si>
-  <si>
     <t>1B</t>
   </si>
   <si>
-    <t>22-23</t>
-  </si>
-  <si>
-    <t>24-25</t>
-  </si>
-  <si>
-    <t>26-27</t>
-  </si>
-  <si>
-    <t>4c-4d</t>
-  </si>
-  <si>
-    <t>4e-4f</t>
-  </si>
-  <si>
-    <t>50-51</t>
-  </si>
-  <si>
     <t>00</t>
   </si>
   <si>
@@ -599,16 +569,184 @@
     <t>0F 01 00 00 0E 01 00 00 01 00 2A 2E 2E 3D 3D 2A 0B 03 2D 00 00 00 01 00 00 00 00 00 00 00 00 1F 14 46 03 01 07 41 00 A6 00 22 00 00 33 00 F8 87 23 86 9B 9A 30 4C 00 28 A9 22 09 00 09 40 00 C8 C0 C4 2A 06 01 02 46 00 45 00 00 00 00 00 00 00 82 00 CC 00 50 00 59 01 40 01 AE 00 13 01 0B 01 85 00 B5 01 B6 01 7C 00 CB 00 CA 00 44 02 04 02 00 FF 00 00 10 21 00 01 2D 00 03 49 00 07 16 00 09 4D 00 0D 4F 00 0D 24 00 0F 4B 00 13 E6 00 15 4A 00 19 26 00 1B 84 01 1F EB 00 21 92 01 25</t>
   </si>
   <si>
-    <t>Index # low</t>
-  </si>
-  <si>
-    <t>Index # high</t>
-  </si>
-  <si>
-    <t>internal personal # high</t>
-  </si>
-  <si>
-    <t>internal personal # low</t>
+    <t>Natdex # high byte</t>
+  </si>
+  <si>
+    <t>Natdex # low byte</t>
+  </si>
+  <si>
+    <t>internal personal # low byte</t>
+  </si>
+  <si>
+    <t>internal personal # high byte</t>
+  </si>
+  <si>
+    <t>offset</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>1D</t>
+  </si>
+  <si>
+    <t>1F</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>2B</t>
+  </si>
+  <si>
+    <t>2C</t>
+  </si>
+  <si>
+    <t>2E</t>
+  </si>
+  <si>
+    <t>2F</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>3A</t>
+  </si>
+  <si>
+    <t>3B</t>
+  </si>
+  <si>
+    <t>3C</t>
+  </si>
+  <si>
+    <t>3D</t>
+  </si>
+  <si>
+    <t>3E</t>
+  </si>
+  <si>
+    <t>3F</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>4A</t>
+  </si>
+  <si>
+    <t>4C</t>
+  </si>
+  <si>
+    <t>4E</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>0x50 + 2*value at 0x05</t>
+  </si>
+  <si>
+    <t>0x50 + 2*value at 0x05 + 7*value at 0x06</t>
+  </si>
+  <si>
+    <t>0x50 + 2*value at 0x05 + 7*value at 0x06 + 7*value at 0x07</t>
+  </si>
+  <si>
+    <t>0x50 + 2*value at 0x05 + 7*value at 0x06 + 7*value at 0x07 + 4*value at 0x08</t>
   </si>
 </sst>
 </file>
@@ -988,1217 +1126,1023 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31FDE52E-1438-4E4D-B985-58AEBB556F45}">
-  <dimension ref="A1:Q74"/>
+  <dimension ref="A1:S74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E14"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="3" width="17.46484375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="24" customWidth="1"/>
-    <col min="7" max="7" width="20.3984375" customWidth="1"/>
+    <col min="1" max="1" width="19.19921875" customWidth="1"/>
+    <col min="2" max="2" width="19.19921875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="24" customWidth="1"/>
+    <col min="9" max="9" width="20.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>180</v>
+      </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>0</v>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>104</v>
       </c>
       <c r="B2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <f>A2+D2</f>
-        <v>1</v>
+        <v>177</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>105</v>
       </c>
       <c r="B3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <f t="shared" ref="A4:A69" si="0">A3+D3</f>
-        <v>2</v>
+        <v>176</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>106</v>
       </c>
       <c r="B4" t="s">
         <v>63</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5">
-        <f t="shared" si="0"/>
-        <v>3</v>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>107</v>
       </c>
       <c r="B5" t="s">
-        <v>189</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <v>178</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>108</v>
       </c>
       <c r="B6" t="s">
-        <v>188</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <v>179</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>109</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8">
-        <f t="shared" si="0"/>
-        <v>6</v>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>110</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>7</v>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>111</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10">
-        <f t="shared" si="0"/>
-        <v>8</v>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>112</v>
       </c>
       <c r="B10" t="s">
         <v>60</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A11">
-        <f t="shared" si="0"/>
-        <v>9</v>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>181</v>
       </c>
       <c r="B11" t="s">
         <v>66</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A12">
-        <f t="shared" si="0"/>
-        <v>10</v>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>182</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C12" t="s">
-        <v>104</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A13">
-        <f t="shared" si="0"/>
-        <v>11</v>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>183</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C13" t="s">
-        <v>105</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A14">
-        <f t="shared" si="0"/>
-        <v>12</v>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>184</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C14" t="s">
-        <v>106</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A15">
-        <f t="shared" si="0"/>
-        <v>13</v>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>185</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A16">
-        <f t="shared" si="0"/>
-        <v>14</v>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>186</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A17">
-        <f t="shared" si="0"/>
-        <v>15</v>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>187</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C17" t="s">
-        <v>107</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A18">
-        <f t="shared" si="0"/>
-        <v>16</v>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>188</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A19">
-        <f t="shared" si="0"/>
-        <v>17</v>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>189</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A20">
-        <f t="shared" si="0"/>
-        <v>18</v>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>113</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A21">
-        <f t="shared" si="0"/>
-        <v>19</v>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>114</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A22">
-        <f t="shared" si="0"/>
-        <v>20</v>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>115</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="N22" s="1"/>
-      <c r="O22" s="2"/>
-      <c r="Q22" s="3"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A23">
-        <f t="shared" si="0"/>
-        <v>21</v>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="2"/>
+      <c r="S22" s="3"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>116</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="N23" s="1"/>
-      <c r="O23" s="2"/>
-      <c r="Q23" s="3"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A24">
-        <f t="shared" si="0"/>
-        <v>22</v>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="2"/>
+      <c r="S23" s="3"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>117</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="N24" s="1"/>
-      <c r="O24" s="2"/>
-      <c r="Q24" s="3"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A25">
-        <f t="shared" si="0"/>
-        <v>23</v>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="2"/>
+      <c r="S24" s="3"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>118</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="N25" s="1"/>
-      <c r="O25" s="2"/>
-      <c r="Q25" s="3"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A26">
-        <f t="shared" si="0"/>
-        <v>24</v>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="2"/>
+      <c r="S25" s="3"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>119</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="N26" s="1"/>
-      <c r="O26" s="2"/>
-      <c r="Q26" s="3"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A27">
-        <f t="shared" si="0"/>
-        <v>25</v>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="2"/>
+      <c r="S26" s="3"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>120</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D27">
+      <c r="C27">
         <v>2</v>
       </c>
-      <c r="N27" s="1"/>
-      <c r="O27" s="2"/>
-      <c r="Q27" s="3"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A28">
-        <f t="shared" si="0"/>
-        <v>27</v>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="2"/>
+      <c r="S27" s="3"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>121</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D28">
+      <c r="C28">
         <v>2</v>
       </c>
-      <c r="N28" s="1"/>
-      <c r="O28" s="2"/>
-      <c r="Q28" s="3"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A29">
-        <f t="shared" si="0"/>
-        <v>29</v>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="2"/>
+      <c r="S28" s="3"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>190</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D29">
+      <c r="C29">
         <v>2</v>
       </c>
-      <c r="N29" s="1"/>
-      <c r="O29" s="2"/>
-      <c r="Q29" s="3"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A30">
-        <f t="shared" si="0"/>
-        <v>31</v>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="2"/>
+      <c r="S29" s="3"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>191</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C30" t="s">
-        <v>116</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="N30" s="1"/>
-      <c r="O30" s="2"/>
-      <c r="Q30" s="3"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A31">
-        <f t="shared" si="0"/>
-        <v>32</v>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="2"/>
+      <c r="S30" s="3"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>192</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C31" t="s">
-        <v>117</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A32">
-        <f t="shared" si="0"/>
-        <v>33</v>
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>193</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C32" t="s">
-        <v>118</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A33">
-        <f t="shared" si="0"/>
-        <v>34</v>
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>194</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A34">
-        <f t="shared" si="0"/>
-        <v>35</v>
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>195</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A35">
-        <f t="shared" si="0"/>
-        <v>36</v>
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>196</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A36">
-        <f t="shared" si="0"/>
-        <v>37</v>
+      <c r="C35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>197</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D36">
+      <c r="C36">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A37">
-        <f t="shared" si="0"/>
-        <v>39</v>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>198</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D37">
+      <c r="C37">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A38">
-        <f t="shared" si="0"/>
-        <v>41</v>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>199</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D38">
+      <c r="C38">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A39">
-        <f t="shared" si="0"/>
-        <v>43</v>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>200</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A40">
-        <f t="shared" si="0"/>
-        <v>44</v>
+      <c r="C39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>201</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D40">
+      <c r="C40">
         <v>2</v>
       </c>
-      <c r="N40" t="s">
-        <v>147</v>
-      </c>
       <c r="P40" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A41">
-        <f t="shared" si="0"/>
-        <v>46</v>
+        <v>137</v>
+      </c>
+      <c r="R40" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>202</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="4">
-        <v>28</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="P41" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A42">
-        <f t="shared" si="0"/>
-        <v>47</v>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="R41" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>203</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="4" t="str">
-        <f>DEC2HEX(1+HEX2DEC(C41))</f>
-        <v>29</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="P42" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A43">
-        <f t="shared" si="0"/>
-        <v>48</v>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="R42" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>204</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="4" t="str">
-        <f t="shared" ref="C43:C54" si="1">DEC2HEX(1+HEX2DEC(C42))</f>
-        <v>2A</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="P43" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A44">
-        <f t="shared" si="0"/>
-        <v>49</v>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="R43" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>205</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C44" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>2B</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="P44" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A45">
-        <f t="shared" si="0"/>
-        <v>50</v>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="R44" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>206</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C45" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>2C</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="P45" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A46">
-        <f t="shared" si="0"/>
-        <v>51</v>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="R45" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>207</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C46" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>2D</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="P46" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A47">
-        <f t="shared" si="0"/>
-        <v>52</v>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="R46" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>208</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>2E</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="F47" t="s">
-        <v>174</v>
-      </c>
-      <c r="G47" t="s">
-        <v>173</v>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="H47" t="s">
+        <v>164</v>
       </c>
       <c r="I47" t="s">
-        <v>157</v>
-      </c>
-      <c r="N47" t="s">
-        <v>172</v>
-      </c>
-      <c r="O47" t="s">
-        <v>178</v>
+        <v>163</v>
+      </c>
+      <c r="K47" t="s">
+        <v>147</v>
       </c>
       <c r="P47" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A48">
-        <f t="shared" si="0"/>
-        <v>53</v>
+        <v>162</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>168</v>
+      </c>
+      <c r="R47" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>209</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C48" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>2F</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48" t="s">
-        <v>175</v>
-      </c>
-      <c r="F48" t="s">
-        <v>148</v>
+      <c r="C48">
+        <v>1</v>
       </c>
       <c r="G48" t="s">
-        <v>148</v>
+        <v>165</v>
+      </c>
+      <c r="H48" t="s">
+        <v>138</v>
       </c>
       <c r="I48" t="s">
-        <v>148</v>
-      </c>
-      <c r="N48" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A49">
-        <f t="shared" si="0"/>
-        <v>54</v>
+        <v>138</v>
+      </c>
+      <c r="K48" t="s">
+        <v>138</v>
+      </c>
+      <c r="P48" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>210</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C49" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="H49" t="s">
-        <v>159</v>
-      </c>
-      <c r="I49" t="s">
-        <v>158</v>
-      </c>
-      <c r="N49" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A50">
-        <f t="shared" si="0"/>
-        <v>55</v>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="J49" t="s">
+        <v>149</v>
+      </c>
+      <c r="K49" t="s">
+        <v>148</v>
+      </c>
+      <c r="P49" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>211</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C50" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="H50" t="s">
-        <v>161</v>
-      </c>
-      <c r="I50" t="s">
-        <v>160</v>
-      </c>
-      <c r="N50" t="s">
-        <v>180</v>
-      </c>
-      <c r="O50" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A51">
-        <f t="shared" si="0"/>
-        <v>56</v>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="J50" t="s">
+        <v>151</v>
+      </c>
+      <c r="K50" t="s">
+        <v>150</v>
+      </c>
+      <c r="P50" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>212</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C51" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="H51" t="s">
-        <v>163</v>
-      </c>
-      <c r="I51" t="s">
-        <v>162</v>
-      </c>
-      <c r="N51" t="s">
-        <v>181</v>
-      </c>
-      <c r="O51" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A52">
-        <f t="shared" si="0"/>
-        <v>57</v>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="J51" t="s">
+        <v>153</v>
+      </c>
+      <c r="K51" t="s">
+        <v>152</v>
+      </c>
+      <c r="P51" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>213</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C52" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="H52" t="s">
-        <v>163</v>
-      </c>
-      <c r="I52" t="s">
-        <v>164</v>
-      </c>
-      <c r="N52" t="s">
-        <v>182</v>
-      </c>
-      <c r="O52" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A53">
-        <f t="shared" si="0"/>
-        <v>58</v>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="J52" t="s">
+        <v>153</v>
+      </c>
+      <c r="K52" t="s">
+        <v>154</v>
+      </c>
+      <c r="P52" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>214</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C53" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="H53" t="s">
-        <v>165</v>
-      </c>
-      <c r="I53" t="s">
-        <v>183</v>
-      </c>
-      <c r="N53">
+        <v>161</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="J53" t="s">
+        <v>155</v>
+      </c>
+      <c r="K53" t="s">
+        <v>173</v>
+      </c>
+      <c r="P53">
         <v>40</v>
       </c>
-      <c r="O53" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A54">
-        <f t="shared" si="0"/>
-        <v>59</v>
+      <c r="Q53" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>215</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C54" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-      <c r="H54" t="s">
-        <v>163</v>
-      </c>
-      <c r="I54" t="s">
-        <v>166</v>
-      </c>
-      <c r="N54">
+        <v>136</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="J54" t="s">
+        <v>153</v>
+      </c>
+      <c r="K54" t="s">
+        <v>156</v>
+      </c>
+      <c r="P54">
         <v>41</v>
       </c>
-      <c r="O54" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A55">
-        <f t="shared" si="0"/>
-        <v>60</v>
+      <c r="Q54" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>216</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C55" s="4">
-        <v>38</v>
-      </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-      <c r="H55" t="s">
-        <v>163</v>
-      </c>
-      <c r="I55" t="s">
-        <v>167</v>
-      </c>
-      <c r="N55">
+        <v>169</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="J55" t="s">
+        <v>153</v>
+      </c>
+      <c r="K55" t="s">
+        <v>157</v>
+      </c>
+      <c r="P55">
         <v>42</v>
       </c>
-      <c r="O55" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A56">
-        <f t="shared" si="0"/>
-        <v>61</v>
+      <c r="Q55" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>217</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-      <c r="H56" t="s">
-        <v>163</v>
-      </c>
-      <c r="I56" t="s">
-        <v>168</v>
-      </c>
-      <c r="N56">
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="J56" t="s">
+        <v>153</v>
+      </c>
+      <c r="K56" t="s">
+        <v>158</v>
+      </c>
+      <c r="P56">
         <v>43</v>
       </c>
-      <c r="O56" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A57">
-        <f t="shared" si="0"/>
-        <v>62</v>
+      <c r="Q56" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>218</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-      <c r="H57" t="s">
-        <v>170</v>
-      </c>
-      <c r="I57" t="s">
-        <v>169</v>
-      </c>
-      <c r="N57" t="s">
-        <v>162</v>
-      </c>
-      <c r="O57" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A58">
-        <f t="shared" si="0"/>
-        <v>63</v>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="J57" t="s">
+        <v>160</v>
+      </c>
+      <c r="K57" t="s">
+        <v>159</v>
+      </c>
+      <c r="P57" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>219</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A59">
-        <f t="shared" si="0"/>
-        <v>64</v>
+      <c r="C58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>220</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A60">
-        <f t="shared" si="0"/>
-        <v>65</v>
+      <c r="C59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>221</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A61">
-        <f t="shared" si="0"/>
-        <v>66</v>
+      <c r="C60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>222</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A62">
-        <f t="shared" si="0"/>
-        <v>67</v>
+      <c r="C61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>223</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A63">
-        <f t="shared" si="0"/>
-        <v>68</v>
+      <c r="C62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>224</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A64">
-        <f t="shared" si="0"/>
-        <v>69</v>
+      <c r="C63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>225</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A65">
-        <f t="shared" si="0"/>
-        <v>70</v>
+        <v>174</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>226</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C65" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D65">
+      <c r="C65">
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A66">
-        <f t="shared" si="0"/>
-        <v>72</v>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>227</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C66" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D66">
+      <c r="C66">
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A67">
-        <f t="shared" si="0"/>
-        <v>74</v>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>228</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C67" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D67">
+      <c r="C67">
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A68">
-        <f t="shared" si="0"/>
-        <v>76</v>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>229</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C68" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D68">
+      <c r="C68">
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A69">
-        <f t="shared" si="0"/>
-        <v>78</v>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>230</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C69" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D69">
+      <c r="C69">
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A70">
-        <f t="shared" ref="A70" si="2">A69+D69</f>
-        <v>80</v>
+    <row r="70" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>231</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D70">
+      <c r="C70">
         <v>2</v>
       </c>
-      <c r="E70" t="s">
+      <c r="D70" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="114" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>232</v>
+      </c>
       <c r="B71" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D71">
+      <c r="C71">
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="114" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>233</v>
+      </c>
       <c r="B72" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D72">
+      <c r="C72">
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
+        <v>234</v>
+      </c>
       <c r="B73" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D73">
+      <c r="C73">
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>235</v>
+      </c>
       <c r="B74" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D74">
+      <c r="C74">
         <v>3</v>
       </c>
     </row>
@@ -2219,11 +2163,11 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B1" s="5" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -2231,21 +2175,21 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C2">
         <f>A9+1</f>
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="E2">
         <f>2^A2</f>
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
@@ -2254,14 +2198,14 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C3">
         <f>C2+1</f>
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E9" si="0">2^A3</f>
@@ -2274,14 +2218,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C4">
         <f t="shared" ref="C4:C9" si="2">C3+1</f>
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
@@ -2294,14 +2238,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C5">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
@@ -2314,7 +2258,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C6">
         <f t="shared" si="2"/>
@@ -2331,7 +2275,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C7">
         <f t="shared" si="2"/>
@@ -2348,7 +2292,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C8">
         <f t="shared" si="2"/>
@@ -2365,7 +2309,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C9">
         <f t="shared" si="2"/>
@@ -2376,7 +2320,7 @@
         <v>128</v>
       </c>
       <c r="F9" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2915,7 +2859,7 @@
         <v>0F0100000E01000001002A2E2E3D3D2A0B032D0000000100000000000000001F14460301074100A6002200003300F88723869B9A304C0028A9220900094000C8C0C42A060102460045000000000000008200CC00500059014001AE0013010B018500B501B6017C00CB00CA004402040200FF0000102100012D00034900071600094D000D4F000D24000F4B0013E600154A001926001B84011FEB0021920125</v>
       </c>
       <c r="I2" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
@@ -4030,7 +3974,7 @@
         <v>1</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="D51" t="str">
         <f t="shared" si="1"/>
@@ -4053,7 +3997,7 @@
         <v>1</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="D52" t="str">
         <f t="shared" si="1"/>
@@ -4076,7 +4020,7 @@
         <v>1</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="D53" t="str">
         <f t="shared" si="1"/>
@@ -4283,7 +4227,7 @@
         <v>1</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="D62" t="str">
         <f t="shared" si="1"/>

--- a/data structure plan.xlsx
+++ b/data structure plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Programs\3DS Pokedex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7370F959-5EFE-4291-8F67-A0E6BFEDA9D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36C234B-1CB6-4E05-AF3F-0875F5D4EC53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{E8F28A6F-6F1D-4032-9281-A373BEA9A053}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{E8F28A6F-6F1D-4032-9281-A373BEA9A053}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1129,7 +1129,7 @@
   <dimension ref="A1:S74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/data structure plan.xlsx
+++ b/data structure plan.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Programs\3DS Pokedex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F971DB3-1658-4313-A728-317A17472EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0827E866-F585-4BB0-AEC7-3D9806418801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="1" xr2:uid="{E8F28A6F-6F1D-4032-9281-A373BEA9A053}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{E8F28A6F-6F1D-4032-9281-A373BEA9A053}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Evolution" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId3"/>
+    <sheet name="Evolution" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="274">
   <si>
     <t>Pokemon Data Structure</t>
   </si>
@@ -751,31 +752,115 @@
     <t>Forme Names</t>
   </si>
   <si>
-    <t>Move Description</t>
-  </si>
-  <si>
     <t>Dex Data</t>
   </si>
   <si>
-    <t>Trainer Class Name</t>
-  </si>
-  <si>
-    <t>Trainer Name</t>
-  </si>
-  <si>
     <t>Item Names</t>
   </si>
   <si>
-    <t>Ability Description</t>
-  </si>
-  <si>
-    <t>Item Description</t>
-  </si>
-  <si>
     <t>Field</t>
   </si>
   <si>
-    <t>Type</t>
+    <t>Ability Descriptions</t>
+  </si>
+  <si>
+    <t>Item Descriptions</t>
+  </si>
+  <si>
+    <t>Move Descriptions</t>
+  </si>
+  <si>
+    <t>Trainer Classes</t>
+  </si>
+  <si>
+    <t>Trainer Names</t>
+  </si>
+  <si>
+    <t>Type names</t>
+  </si>
+  <si>
+    <t>case 'pokemon_names':</t>
+  </si>
+  <si>
+    <t>case 'forme_names':</t>
+  </si>
+  <si>
+    <t>case 'type_names':</t>
+  </si>
+  <si>
+    <t>case 'ability_names':</t>
+  </si>
+  <si>
+    <t>case 'ability_descriptions':</t>
+  </si>
+  <si>
+    <t>case 'dex_data':</t>
+  </si>
+  <si>
+    <t>case 'item_names':</t>
+  </si>
+  <si>
+    <t>case 'item_descriptions':</t>
+  </si>
+  <si>
+    <t>case 'move_names':</t>
+  </si>
+  <si>
+    <t>case 'move_descriptions':</t>
+  </si>
+  <si>
+    <t>case 'trainer_classes':</t>
+  </si>
+  <si>
+    <t>case 'trainer_names':</t>
+  </si>
+  <si>
+    <t>match self.game:</t>
+  </si>
+  <si>
+    <t>type_names</t>
+  </si>
+  <si>
+    <t>ability_names</t>
+  </si>
+  <si>
+    <t>ability_descriptions</t>
+  </si>
+  <si>
+    <t>dex_data</t>
+  </si>
+  <si>
+    <t>item_names</t>
+  </si>
+  <si>
+    <t>item_descriptions</t>
+  </si>
+  <si>
+    <t>move_names</t>
+  </si>
+  <si>
+    <t>move_descriptions</t>
+  </si>
+  <si>
+    <t>trainer_names</t>
+  </si>
+  <si>
+    <t>dex_creation_data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = load_text_from_gametext(game_text_data, find_file_in_game_text(game_text_data, dex_creation_data.gametext_file_number('</t>
+  </si>
+  <si>
+    <t>trainer_classes</t>
+  </si>
+  <si>
+    <t>Pokemon name</t>
+  </si>
+  <si>
+    <t>Forme Name</t>
+  </si>
+  <si>
+    <t>at least 4 bytes (FF FE start, 00 00 Terminator)</t>
   </si>
 </sst>
 </file>
@@ -1154,10 +1239,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31FDE52E-1438-4E4D-B985-58AEBB556F45}">
-  <dimension ref="A1:S74"/>
+  <dimension ref="A1:S76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2174,6 +2259,22 @@
         <v>3</v>
       </c>
     </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B75" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C75" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B76" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C76" t="s">
+        <v>273</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2181,18 +2282,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E18019AA-B25E-4AB2-A7EB-12F62F0BBFC5}">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
+    <col min="12" max="12" width="22.46484375" customWidth="1"/>
     <col min="13" max="13" width="19.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B1" s="5" t="s">
         <v>120</v>
       </c>
@@ -2200,23 +2302,8 @@
       <c r="D1" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="M1" t="s">
-        <v>244</v>
-      </c>
-      <c r="N1" t="s">
-        <v>162</v>
-      </c>
-      <c r="O1" t="s">
-        <v>145</v>
-      </c>
-      <c r="P1" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2237,20 +2324,8 @@
       <c r="F2" t="s">
         <v>122</v>
       </c>
-      <c r="M2" t="s">
-        <v>242</v>
-      </c>
-      <c r="N2">
-        <v>33</v>
-      </c>
-      <c r="O2">
-        <v>36</v>
-      </c>
-      <c r="Q2">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3">
         <f>A2+1</f>
         <v>1</v>
@@ -2269,20 +2344,8 @@
         <f t="shared" ref="E3:E9" si="0">2^A3</f>
         <v>2</v>
       </c>
-      <c r="M3" t="s">
-        <v>234</v>
-      </c>
-      <c r="N3">
-        <v>34</v>
-      </c>
-      <c r="O3">
-        <v>37</v>
-      </c>
-      <c r="Q3">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4">
         <f t="shared" ref="A4:A9" si="1">A3+1</f>
         <v>2</v>
@@ -2301,20 +2364,8 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="M4" t="s">
-        <v>238</v>
-      </c>
-      <c r="N4">
-        <v>6</v>
-      </c>
-      <c r="O4">
-        <v>6</v>
-      </c>
-      <c r="Q4">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -2333,20 +2384,8 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="M5" t="s">
-        <v>236</v>
-      </c>
-      <c r="N5">
-        <v>5</v>
-      </c>
-      <c r="O5">
-        <v>5</v>
-      </c>
-      <c r="Q5">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -2362,20 +2401,8 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="M6" t="s">
-        <v>243</v>
-      </c>
-      <c r="N6">
-        <v>99</v>
-      </c>
-      <c r="O6">
-        <v>117</v>
-      </c>
-      <c r="Q6">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -2391,20 +2418,8 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="M7" t="s">
-        <v>241</v>
-      </c>
-      <c r="N7">
-        <v>98</v>
-      </c>
-      <c r="O7">
-        <v>116</v>
-      </c>
-      <c r="Q7">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -2420,20 +2435,8 @@
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="M8" t="s">
-        <v>237</v>
-      </c>
-      <c r="N8">
-        <v>15</v>
-      </c>
-      <c r="O8">
-        <v>16</v>
-      </c>
-      <c r="Q8">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -2451,74 +2454,6 @@
       </c>
       <c r="F9" t="s">
         <v>123</v>
-      </c>
-      <c r="M9" t="s">
-        <v>233</v>
-      </c>
-      <c r="N9">
-        <v>14</v>
-      </c>
-      <c r="O9">
-        <v>14</v>
-      </c>
-      <c r="Q9">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="M10" t="s">
-        <v>235</v>
-      </c>
-      <c r="N10">
-        <v>80</v>
-      </c>
-      <c r="O10">
-        <v>98</v>
-      </c>
-      <c r="Q10">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="M11" t="s">
-        <v>239</v>
-      </c>
-      <c r="N11">
-        <v>19</v>
-      </c>
-      <c r="O11">
-        <v>21</v>
-      </c>
-      <c r="Q11">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="M12" t="s">
-        <v>240</v>
-      </c>
-      <c r="N12">
-        <v>20</v>
-      </c>
-      <c r="O12">
-        <v>22</v>
-      </c>
-      <c r="Q12">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="M13" t="s">
-        <v>245</v>
-      </c>
-      <c r="N13">
-        <v>17</v>
-      </c>
-      <c r="O13">
-        <v>18</v>
-      </c>
-      <c r="Q13">
-        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2530,6 +2465,1318 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9501AB9E-07B8-4504-851C-A815E5CC4DA5}">
+  <dimension ref="A1:X121"/>
+  <sheetViews>
+    <sheetView topLeftCell="O10" workbookViewId="0">
+      <selection activeCell="T31" sqref="T31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="7" max="8" width="18.265625" customWidth="1"/>
+    <col min="16" max="16" width="15.06640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29.46484375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="101.265625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B2">
+        <v>33</v>
+      </c>
+      <c r="C2">
+        <v>36</v>
+      </c>
+      <c r="D2">
+        <v>97</v>
+      </c>
+      <c r="E2">
+        <v>102</v>
+      </c>
+      <c r="G2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="H3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>240</v>
+      </c>
+      <c r="I4" t="str">
+        <f>"case "&amp;"'"&amp;$B$1&amp;"':"</f>
+        <v>case 'XY':</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>240</v>
+      </c>
+      <c r="J5" t="str">
+        <f>_xlfn.CONCAT("return(",B2,")")</f>
+        <v>return(33)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>240</v>
+      </c>
+      <c r="I6" t="str">
+        <f>"case "&amp;"'"&amp;$C$1&amp;"':"</f>
+        <v>case 'ORAS':</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>240</v>
+      </c>
+      <c r="J7" t="str">
+        <f>_xlfn.CONCAT("return(",C2,")")</f>
+        <v>return(36)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>240</v>
+      </c>
+      <c r="I8" t="str">
+        <f>"case "&amp;"'"&amp;$D$1&amp;"':"</f>
+        <v>case 'SM':</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>240</v>
+      </c>
+      <c r="J9" t="str">
+        <f>_xlfn.CONCAT("return(",D2,")")</f>
+        <v>return(97)</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>240</v>
+      </c>
+      <c r="I10" t="str">
+        <f>"case "&amp;"'"&amp;$E$1&amp;"':"</f>
+        <v>case 'USUM':</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>240</v>
+      </c>
+      <c r="J11" t="str">
+        <f>_xlfn.CONCAT("return(",E2,")")</f>
+        <v>return(102)</v>
+      </c>
+      <c r="S11" t="s">
+        <v>268</v>
+      </c>
+      <c r="U11" t="s">
+        <v>269</v>
+      </c>
+      <c r="X11" t="str">
+        <f>"')))"</f>
+        <v>')))</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>234</v>
+      </c>
+      <c r="B12">
+        <v>34</v>
+      </c>
+      <c r="C12">
+        <v>37</v>
+      </c>
+      <c r="D12">
+        <v>96</v>
+      </c>
+      <c r="E12">
+        <v>101</v>
+      </c>
+      <c r="G12" t="s">
+        <v>249</v>
+      </c>
+      <c r="P12" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>259</v>
+      </c>
+      <c r="S12" t="str">
+        <f>_xlfn.CONCAT(S$11,P12,U$11,P12,W$11,X$11)</f>
+        <v>dex_creation_data.type_names = load_text_from_gametext(game_text_data, find_file_in_game_text(game_text_data, dex_creation_data.gametext_file_number('type_names')))</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="H13" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>234</v>
+      </c>
+      <c r="I14" t="str">
+        <f>"case "&amp;"'"&amp;$B$1&amp;"':"</f>
+        <v>case 'XY':</v>
+      </c>
+      <c r="P14" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>260</v>
+      </c>
+      <c r="S14" t="str">
+        <f t="shared" ref="S14:S26" si="0">_xlfn.CONCAT(S$11,P14,U$11,P14,W$11,X$11)</f>
+        <v>dex_creation_data.ability_names = load_text_from_gametext(game_text_data, find_file_in_game_text(game_text_data, dex_creation_data.gametext_file_number('ability_names')))</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>234</v>
+      </c>
+      <c r="J15" t="str">
+        <f>_xlfn.CONCAT("return(",B12,")")</f>
+        <v>return(34)</v>
+      </c>
+      <c r="P15" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>261</v>
+      </c>
+      <c r="S15" t="str">
+        <f t="shared" si="0"/>
+        <v>dex_creation_data.ability_descriptions = load_text_from_gametext(game_text_data, find_file_in_game_text(game_text_data, dex_creation_data.gametext_file_number('ability_descriptions')))</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>234</v>
+      </c>
+      <c r="I16" t="str">
+        <f>"case "&amp;"'"&amp;$C$1&amp;"':"</f>
+        <v>case 'ORAS':</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>234</v>
+      </c>
+      <c r="J17" t="str">
+        <f>_xlfn.CONCAT("return(",C12,")")</f>
+        <v>return(37)</v>
+      </c>
+      <c r="P17" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>262</v>
+      </c>
+      <c r="S17" t="str">
+        <f t="shared" si="0"/>
+        <v>dex_creation_data.dex_data = load_text_from_gametext(game_text_data, find_file_in_game_text(game_text_data, dex_creation_data.gametext_file_number('dex_data')))</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>234</v>
+      </c>
+      <c r="I18" t="str">
+        <f>"case "&amp;"'"&amp;$D$1&amp;"':"</f>
+        <v>case 'SM':</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>234</v>
+      </c>
+      <c r="J19" t="str">
+        <f>_xlfn.CONCAT("return(",D12,")")</f>
+        <v>return(96)</v>
+      </c>
+      <c r="P19" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>263</v>
+      </c>
+      <c r="S19" t="str">
+        <f t="shared" si="0"/>
+        <v>dex_creation_data.item_names = load_text_from_gametext(game_text_data, find_file_in_game_text(game_text_data, dex_creation_data.gametext_file_number('item_names')))</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>234</v>
+      </c>
+      <c r="I20" t="str">
+        <f>"case "&amp;"'"&amp;$E$1&amp;"':"</f>
+        <v>case 'USUM':</v>
+      </c>
+      <c r="P20" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>264</v>
+      </c>
+      <c r="S20" t="str">
+        <f t="shared" si="0"/>
+        <v>dex_creation_data.item_descriptions = load_text_from_gametext(game_text_data, find_file_in_game_text(game_text_data, dex_creation_data.gametext_file_number('item_descriptions')))</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>234</v>
+      </c>
+      <c r="J21" t="str">
+        <f>_xlfn.CONCAT("return(",E12,")")</f>
+        <v>return(101)</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>237</v>
+      </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>119</v>
+      </c>
+      <c r="E22">
+        <v>124</v>
+      </c>
+      <c r="G22" t="s">
+        <v>251</v>
+      </c>
+      <c r="P22" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>265</v>
+      </c>
+      <c r="S22" t="str">
+        <f t="shared" si="0"/>
+        <v>dex_creation_data.move_names = load_text_from_gametext(game_text_data, find_file_in_game_text(game_text_data, dex_creation_data.gametext_file_number('move_names')))</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="H23" t="s">
+        <v>258</v>
+      </c>
+      <c r="P23" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>266</v>
+      </c>
+      <c r="S23" t="str">
+        <f t="shared" si="0"/>
+        <v>dex_creation_data.move_descriptions = load_text_from_gametext(game_text_data, find_file_in_game_text(game_text_data, dex_creation_data.gametext_file_number('move_descriptions')))</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>237</v>
+      </c>
+      <c r="I24" t="str">
+        <f>"case "&amp;"'"&amp;$B$1&amp;"':"</f>
+        <v>case 'XY':</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>237</v>
+      </c>
+      <c r="J25" t="str">
+        <f>_xlfn.CONCAT("return(",B22,")")</f>
+        <v>return(6)</v>
+      </c>
+      <c r="P25" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>270</v>
+      </c>
+      <c r="S25" t="str">
+        <f t="shared" si="0"/>
+        <v>dex_creation_data.trainer_classes = load_text_from_gametext(game_text_data, find_file_in_game_text(game_text_data, dex_creation_data.gametext_file_number('trainer_classes')))</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>237</v>
+      </c>
+      <c r="I26" t="str">
+        <f>"case "&amp;"'"&amp;$C$1&amp;"':"</f>
+        <v>case 'ORAS':</v>
+      </c>
+      <c r="P26" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>267</v>
+      </c>
+      <c r="S26" t="str">
+        <f t="shared" si="0"/>
+        <v>dex_creation_data.trainer_names = load_text_from_gametext(game_text_data, find_file_in_game_text(game_text_data, dex_creation_data.gametext_file_number('trainer_names')))</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>237</v>
+      </c>
+      <c r="J27" t="str">
+        <f>_xlfn.CONCAT("return(",C22,")")</f>
+        <v>return(6)</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>237</v>
+      </c>
+      <c r="I28" t="str">
+        <f>"case "&amp;"'"&amp;$D$1&amp;"':"</f>
+        <v>case 'SM':</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>237</v>
+      </c>
+      <c r="J29" t="str">
+        <f>_xlfn.CONCAT("return(",D22,")")</f>
+        <v>return(119)</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>237</v>
+      </c>
+      <c r="I30" t="str">
+        <f>"case "&amp;"'"&amp;$E$1&amp;"':"</f>
+        <v>case 'USUM':</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>237</v>
+      </c>
+      <c r="J31" t="str">
+        <f>_xlfn.CONCAT("return(",E22,")")</f>
+        <v>return(124)</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>236</v>
+      </c>
+      <c r="B32">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+      <c r="G32" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="H33" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>236</v>
+      </c>
+      <c r="I34" t="str">
+        <f>"case "&amp;"'"&amp;$B$1&amp;"':"</f>
+        <v>case 'XY':</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>236</v>
+      </c>
+      <c r="J35" t="str">
+        <f>_xlfn.CONCAT("return(",B32,")")</f>
+        <v>return(5)</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>236</v>
+      </c>
+      <c r="I36" t="str">
+        <f>"case "&amp;"'"&amp;$C$1&amp;"':"</f>
+        <v>case 'ORAS':</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>236</v>
+      </c>
+      <c r="J37" t="str">
+        <f>_xlfn.CONCAT("return(",C32,")")</f>
+        <v>return(5)</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>236</v>
+      </c>
+      <c r="I38" t="str">
+        <f>"case "&amp;"'"&amp;$D$1&amp;"':"</f>
+        <v>case 'SM':</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>236</v>
+      </c>
+      <c r="J39" t="str">
+        <f>_xlfn.CONCAT("return(",D32,")")</f>
+        <v>return()</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>236</v>
+      </c>
+      <c r="I40" t="str">
+        <f>"case "&amp;"'"&amp;$E$1&amp;"':"</f>
+        <v>case 'USUM':</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>236</v>
+      </c>
+      <c r="J41" t="str">
+        <f>_xlfn.CONCAT("return(",E32,")")</f>
+        <v>return()</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>241</v>
+      </c>
+      <c r="B42">
+        <v>99</v>
+      </c>
+      <c r="C42">
+        <v>117</v>
+      </c>
+      <c r="D42">
+        <v>35</v>
+      </c>
+      <c r="E42">
+        <v>39</v>
+      </c>
+      <c r="G42" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="H43" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>241</v>
+      </c>
+      <c r="I44" t="str">
+        <f>"case "&amp;"'"&amp;$B$1&amp;"':"</f>
+        <v>case 'XY':</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>241</v>
+      </c>
+      <c r="J45" t="str">
+        <f>_xlfn.CONCAT("return(",B42,")")</f>
+        <v>return(99)</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>241</v>
+      </c>
+      <c r="I46" t="str">
+        <f>"case "&amp;"'"&amp;$C$1&amp;"':"</f>
+        <v>case 'ORAS':</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>241</v>
+      </c>
+      <c r="J47" t="str">
+        <f>_xlfn.CONCAT("return(",C42,")")</f>
+        <v>return(117)</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>241</v>
+      </c>
+      <c r="I48" t="str">
+        <f>"case "&amp;"'"&amp;$D$1&amp;"':"</f>
+        <v>case 'SM':</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>241</v>
+      </c>
+      <c r="J49" t="str">
+        <f>_xlfn.CONCAT("return(",D42,")")</f>
+        <v>return(35)</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>241</v>
+      </c>
+      <c r="I50" t="str">
+        <f>"case "&amp;"'"&amp;$E$1&amp;"':"</f>
+        <v>case 'USUM':</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>241</v>
+      </c>
+      <c r="J51" t="str">
+        <f>_xlfn.CONCAT("return(",E42,")")</f>
+        <v>return(39)</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>238</v>
+      </c>
+      <c r="B52">
+        <v>98</v>
+      </c>
+      <c r="C52">
+        <v>116</v>
+      </c>
+      <c r="D52">
+        <v>36</v>
+      </c>
+      <c r="E52">
+        <v>40</v>
+      </c>
+      <c r="G52" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="H53" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>238</v>
+      </c>
+      <c r="I54" t="str">
+        <f>"case "&amp;"'"&amp;$B$1&amp;"':"</f>
+        <v>case 'XY':</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>238</v>
+      </c>
+      <c r="J55" t="str">
+        <f>_xlfn.CONCAT("return(",B52,")")</f>
+        <v>return(98)</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>238</v>
+      </c>
+      <c r="I56" t="str">
+        <f>"case "&amp;"'"&amp;$C$1&amp;"':"</f>
+        <v>case 'ORAS':</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>238</v>
+      </c>
+      <c r="J57" t="str">
+        <f>_xlfn.CONCAT("return(",C52,")")</f>
+        <v>return(116)</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>238</v>
+      </c>
+      <c r="I58" t="str">
+        <f>"case "&amp;"'"&amp;$D$1&amp;"':"</f>
+        <v>case 'SM':</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>238</v>
+      </c>
+      <c r="J59" t="str">
+        <f>_xlfn.CONCAT("return(",D52,")")</f>
+        <v>return(36)</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>238</v>
+      </c>
+      <c r="I60" t="str">
+        <f>"case "&amp;"'"&amp;$E$1&amp;"':"</f>
+        <v>case 'USUM':</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>238</v>
+      </c>
+      <c r="J61" t="str">
+        <f>_xlfn.CONCAT("return(",E52,")")</f>
+        <v>return(40)</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>242</v>
+      </c>
+      <c r="B62">
+        <v>15</v>
+      </c>
+      <c r="C62">
+        <v>16</v>
+      </c>
+      <c r="D62">
+        <v>112</v>
+      </c>
+      <c r="E62">
+        <v>117</v>
+      </c>
+      <c r="G62" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="H63" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>242</v>
+      </c>
+      <c r="I64" t="str">
+        <f>"case "&amp;"'"&amp;$B$1&amp;"':"</f>
+        <v>case 'XY':</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>242</v>
+      </c>
+      <c r="J65" t="str">
+        <f>_xlfn.CONCAT("return(",B62,")")</f>
+        <v>return(15)</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>242</v>
+      </c>
+      <c r="I66" t="str">
+        <f>"case "&amp;"'"&amp;$C$1&amp;"':"</f>
+        <v>case 'ORAS':</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>242</v>
+      </c>
+      <c r="J67" t="str">
+        <f>_xlfn.CONCAT("return(",C62,")")</f>
+        <v>return(16)</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>242</v>
+      </c>
+      <c r="I68" t="str">
+        <f>"case "&amp;"'"&amp;$D$1&amp;"':"</f>
+        <v>case 'SM':</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>242</v>
+      </c>
+      <c r="J69" t="str">
+        <f>_xlfn.CONCAT("return(",D62,")")</f>
+        <v>return(112)</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>242</v>
+      </c>
+      <c r="I70" t="str">
+        <f>"case "&amp;"'"&amp;$E$1&amp;"':"</f>
+        <v>case 'USUM':</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>242</v>
+      </c>
+      <c r="J71" t="str">
+        <f>_xlfn.CONCAT("return(",E62,")")</f>
+        <v>return(117)</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>233</v>
+      </c>
+      <c r="B72">
+        <v>14</v>
+      </c>
+      <c r="C72">
+        <v>14</v>
+      </c>
+      <c r="D72">
+        <v>113</v>
+      </c>
+      <c r="E72">
+        <v>118</v>
+      </c>
+      <c r="G72" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="H73" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>233</v>
+      </c>
+      <c r="I74" t="str">
+        <f>"case "&amp;"'"&amp;$B$1&amp;"':"</f>
+        <v>case 'XY':</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
+        <v>233</v>
+      </c>
+      <c r="J75" t="str">
+        <f>_xlfn.CONCAT("return(",B72,")")</f>
+        <v>return(14)</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
+        <v>233</v>
+      </c>
+      <c r="I76" t="str">
+        <f>"case "&amp;"'"&amp;$C$1&amp;"':"</f>
+        <v>case 'ORAS':</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
+        <v>233</v>
+      </c>
+      <c r="J77" t="str">
+        <f>_xlfn.CONCAT("return(",C72,")")</f>
+        <v>return(14)</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
+        <v>233</v>
+      </c>
+      <c r="I78" t="str">
+        <f>"case "&amp;"'"&amp;$D$1&amp;"':"</f>
+        <v>case 'SM':</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
+        <v>233</v>
+      </c>
+      <c r="J79" t="str">
+        <f>_xlfn.CONCAT("return(",D72,")")</f>
+        <v>return(113)</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
+        <v>233</v>
+      </c>
+      <c r="I80" t="str">
+        <f>"case "&amp;"'"&amp;$E$1&amp;"':"</f>
+        <v>case 'USUM':</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
+        <v>233</v>
+      </c>
+      <c r="J81" t="str">
+        <f>_xlfn.CONCAT("return(",E72,")")</f>
+        <v>return(118)</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
+        <v>235</v>
+      </c>
+      <c r="B82">
+        <v>80</v>
+      </c>
+      <c r="C82">
+        <v>98</v>
+      </c>
+      <c r="D82">
+        <v>55</v>
+      </c>
+      <c r="E82">
+        <v>60</v>
+      </c>
+      <c r="G82" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="H83" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A84" t="s">
+        <v>235</v>
+      </c>
+      <c r="I84" t="str">
+        <f>"case "&amp;"'"&amp;$B$1&amp;"':"</f>
+        <v>case 'XY':</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A85" t="s">
+        <v>235</v>
+      </c>
+      <c r="J85" t="str">
+        <f>_xlfn.CONCAT("return(",B82,")")</f>
+        <v>return(80)</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A86" t="s">
+        <v>235</v>
+      </c>
+      <c r="I86" t="str">
+        <f>"case "&amp;"'"&amp;$C$1&amp;"':"</f>
+        <v>case 'ORAS':</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A87" t="s">
+        <v>235</v>
+      </c>
+      <c r="J87" t="str">
+        <f>_xlfn.CONCAT("return(",C82,")")</f>
+        <v>return(98)</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A88" t="s">
+        <v>235</v>
+      </c>
+      <c r="I88" t="str">
+        <f>"case "&amp;"'"&amp;$D$1&amp;"':"</f>
+        <v>case 'SM':</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A89" t="s">
+        <v>235</v>
+      </c>
+      <c r="J89" t="str">
+        <f>_xlfn.CONCAT("return(",D82,")")</f>
+        <v>return(55)</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A90" t="s">
+        <v>235</v>
+      </c>
+      <c r="I90" t="str">
+        <f>"case "&amp;"'"&amp;$E$1&amp;"':"</f>
+        <v>case 'USUM':</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A91" t="s">
+        <v>235</v>
+      </c>
+      <c r="J91" t="str">
+        <f>_xlfn.CONCAT("return(",E82,")")</f>
+        <v>return(60)</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A92" t="s">
+        <v>243</v>
+      </c>
+      <c r="B92">
+        <v>19</v>
+      </c>
+      <c r="C92">
+        <v>21</v>
+      </c>
+      <c r="D92">
+        <v>106</v>
+      </c>
+      <c r="E92">
+        <v>111</v>
+      </c>
+      <c r="G92" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="H93" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A94" t="s">
+        <v>243</v>
+      </c>
+      <c r="I94" t="str">
+        <f>"case "&amp;"'"&amp;$B$1&amp;"':"</f>
+        <v>case 'XY':</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A95" t="s">
+        <v>243</v>
+      </c>
+      <c r="J95" t="str">
+        <f>_xlfn.CONCAT("return(",B92,")")</f>
+        <v>return(19)</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A96" t="s">
+        <v>243</v>
+      </c>
+      <c r="I96" t="str">
+        <f>"case "&amp;"'"&amp;$C$1&amp;"':"</f>
+        <v>case 'ORAS':</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A97" t="s">
+        <v>243</v>
+      </c>
+      <c r="J97" t="str">
+        <f>_xlfn.CONCAT("return(",C92,")")</f>
+        <v>return(21)</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A98" t="s">
+        <v>243</v>
+      </c>
+      <c r="I98" t="str">
+        <f>"case "&amp;"'"&amp;$D$1&amp;"':"</f>
+        <v>case 'SM':</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A99" t="s">
+        <v>243</v>
+      </c>
+      <c r="J99" t="str">
+        <f>_xlfn.CONCAT("return(",D92,")")</f>
+        <v>return(106)</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A100" t="s">
+        <v>243</v>
+      </c>
+      <c r="I100" t="str">
+        <f>"case "&amp;"'"&amp;$E$1&amp;"':"</f>
+        <v>case 'USUM':</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A101" t="s">
+        <v>243</v>
+      </c>
+      <c r="J101" t="str">
+        <f>_xlfn.CONCAT("return(",E92,")")</f>
+        <v>return(111)</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A102" t="s">
+        <v>244</v>
+      </c>
+      <c r="B102">
+        <v>20</v>
+      </c>
+      <c r="C102">
+        <v>22</v>
+      </c>
+      <c r="D102">
+        <v>105</v>
+      </c>
+      <c r="E102">
+        <v>110</v>
+      </c>
+      <c r="G102" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="H103" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A104" t="s">
+        <v>244</v>
+      </c>
+      <c r="I104" t="str">
+        <f>"case "&amp;"'"&amp;$B$1&amp;"':"</f>
+        <v>case 'XY':</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A105" t="s">
+        <v>244</v>
+      </c>
+      <c r="J105" t="str">
+        <f>_xlfn.CONCAT("return(",B102,")")</f>
+        <v>return(20)</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A106" t="s">
+        <v>244</v>
+      </c>
+      <c r="I106" t="str">
+        <f>"case "&amp;"'"&amp;$C$1&amp;"':"</f>
+        <v>case 'ORAS':</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A107" t="s">
+        <v>244</v>
+      </c>
+      <c r="J107" t="str">
+        <f>_xlfn.CONCAT("return(",C102,")")</f>
+        <v>return(22)</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A108" t="s">
+        <v>244</v>
+      </c>
+      <c r="I108" t="str">
+        <f>"case "&amp;"'"&amp;$D$1&amp;"':"</f>
+        <v>case 'SM':</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A109" t="s">
+        <v>244</v>
+      </c>
+      <c r="J109" t="str">
+        <f>_xlfn.CONCAT("return(",D102,")")</f>
+        <v>return(105)</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A110" t="s">
+        <v>244</v>
+      </c>
+      <c r="I110" t="str">
+        <f>"case "&amp;"'"&amp;$E$1&amp;"':"</f>
+        <v>case 'USUM':</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A111" t="s">
+        <v>244</v>
+      </c>
+      <c r="J111" t="str">
+        <f>_xlfn.CONCAT("return(",E102,")")</f>
+        <v>return(110)</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A112" t="s">
+        <v>245</v>
+      </c>
+      <c r="B112">
+        <v>17</v>
+      </c>
+      <c r="C112">
+        <v>18</v>
+      </c>
+      <c r="D112">
+        <v>107</v>
+      </c>
+      <c r="E112">
+        <v>112</v>
+      </c>
+      <c r="G112" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="H113" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A114" t="s">
+        <v>245</v>
+      </c>
+      <c r="I114" t="str">
+        <f>"case "&amp;"'"&amp;$B$1&amp;"':"</f>
+        <v>case 'XY':</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A115" t="s">
+        <v>245</v>
+      </c>
+      <c r="J115" t="str">
+        <f>_xlfn.CONCAT("return(",B112,")")</f>
+        <v>return(17)</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A116" t="s">
+        <v>245</v>
+      </c>
+      <c r="I116" t="str">
+        <f>"case "&amp;"'"&amp;$C$1&amp;"':"</f>
+        <v>case 'ORAS':</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A117" t="s">
+        <v>245</v>
+      </c>
+      <c r="J117" t="str">
+        <f>_xlfn.CONCAT("return(",C112,")")</f>
+        <v>return(18)</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A118" t="s">
+        <v>245</v>
+      </c>
+      <c r="I118" t="str">
+        <f>"case "&amp;"'"&amp;$D$1&amp;"':"</f>
+        <v>case 'SM':</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A119" t="s">
+        <v>245</v>
+      </c>
+      <c r="J119" t="str">
+        <f>_xlfn.CONCAT("return(",D112,")")</f>
+        <v>return(107)</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A120" t="s">
+        <v>245</v>
+      </c>
+      <c r="I120" t="str">
+        <f>"case "&amp;"'"&amp;$E$1&amp;"':"</f>
+        <v>case 'USUM':</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A121" t="s">
+        <v>245</v>
+      </c>
+      <c r="J121" t="str">
+        <f>_xlfn.CONCAT("return(",E112,")")</f>
+        <v>return(112)</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I121">
+    <sortCondition ref="A2:A121"/>
+    <sortCondition ref="I2:I121"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08AB0973-A846-4BA3-BEDA-C53E73ED6D9C}">
   <dimension ref="A1:E36"/>
   <sheetViews>

--- a/data structure plan.xlsx
+++ b/data structure plan.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Programs\3DS Pokedex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0827E866-F585-4BB0-AEC7-3D9806418801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A135329-55EC-4A07-8DBA-DFDFA3EDC5D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{E8F28A6F-6F1D-4032-9281-A373BEA9A053}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="2" xr2:uid="{E8F28A6F-6F1D-4032-9281-A373BEA9A053}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId3"/>
-    <sheet name="Evolution" sheetId="2" r:id="rId4"/>
+    <sheet name="moves" sheetId="6" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId4"/>
+    <sheet name="Evolution" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="322">
   <si>
     <t>Pokemon Data Structure</t>
   </si>
@@ -861,6 +862,150 @@
   </si>
   <si>
     <t>at least 4 bytes (FF FE start, 00 00 Terminator)</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Quality</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Base Power</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>PP</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>#hits</t>
+  </si>
+  <si>
+    <t>Status Inflicted</t>
+  </si>
+  <si>
+    <t>Chance Inflict Status</t>
+  </si>
+  <si>
+    <t>0xB code</t>
+  </si>
+  <si>
+    <t>Min Turn effect last</t>
+  </si>
+  <si>
+    <t>Max Turn Effect last</t>
+  </si>
+  <si>
+    <t>Crit Stage</t>
+  </si>
+  <si>
+    <t>Flinch %</t>
+  </si>
+  <si>
+    <t>Recoil/Absorb</t>
+  </si>
+  <si>
+    <t>Heal % (Status Moves Only)</t>
+  </si>
+  <si>
+    <t>Targeting</t>
+  </si>
+  <si>
+    <t>Altered Stat 1</t>
+  </si>
+  <si>
+    <t>Altered Stat 2</t>
+  </si>
+  <si>
+    <t>Altered Stat 3</t>
+  </si>
+  <si>
+    <t>Altered Stage 1</t>
+  </si>
+  <si>
+    <t>Altered Stage 2</t>
+  </si>
+  <si>
+    <t>1A</t>
+  </si>
+  <si>
+    <t>Altered Stage 3</t>
+  </si>
+  <si>
+    <t>Chance of Stat Change 1</t>
+  </si>
+  <si>
+    <t>1C</t>
+  </si>
+  <si>
+    <t>Chance of Stat Change 2</t>
+  </si>
+  <si>
+    <t>Chance of Stat Change 3</t>
+  </si>
+  <si>
+    <t>1E</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>Flags 1</t>
+  </si>
+  <si>
+    <t>Z-Move Base Power</t>
+  </si>
+  <si>
+    <t>Flags 2</t>
+  </si>
+  <si>
+    <t>z-move extra effect</t>
+  </si>
+  <si>
+    <t>Pokemon Refresh Affliction</t>
+  </si>
+  <si>
+    <t>Chance Per Use</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>Flags 3</t>
+  </si>
+  <si>
+    <t>Gen 6</t>
+  </si>
+  <si>
+    <t>Gen 7</t>
+  </si>
+  <si>
+    <t>Offset</t>
+  </si>
+  <si>
+    <t>Z-move low</t>
+  </si>
+  <si>
+    <t>Z-move high</t>
+  </si>
+  <si>
+    <t>Effect Code (Deprecated) (low)</t>
+  </si>
+  <si>
+    <t>Effect Code (Deprecated) (high)</t>
+  </si>
+  <si>
+    <t>Map to</t>
+  </si>
+  <si>
+    <t>??? (gen 6)</t>
   </si>
 </sst>
 </file>
@@ -1241,8 +1386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31FDE52E-1438-4E4D-B985-58AEBB556F45}">
   <dimension ref="A1:S76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="I71" sqref="I71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2465,6 +2610,1017 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEB50B39-970E-4857-99C3-193BC77BF4B9}">
+  <dimension ref="A1:L42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="2.9296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.06640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.9296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.06640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F1" t="s">
+        <v>314</v>
+      </c>
+      <c r="G1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>274</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" t="s">
+        <v>275</v>
+      </c>
+      <c r="G3" t="s">
+        <v>103</v>
+      </c>
+      <c r="K3" t="s">
+        <v>103</v>
+      </c>
+      <c r="L3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" t="s">
+        <v>276</v>
+      </c>
+      <c r="G4" t="s">
+        <v>104</v>
+      </c>
+      <c r="K4" t="s">
+        <v>104</v>
+      </c>
+      <c r="L4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" t="s">
+        <v>277</v>
+      </c>
+      <c r="G5" t="s">
+        <v>105</v>
+      </c>
+      <c r="K5" t="s">
+        <v>105</v>
+      </c>
+      <c r="L5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" t="s">
+        <v>278</v>
+      </c>
+      <c r="C6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" t="s">
+        <v>278</v>
+      </c>
+      <c r="G6" t="s">
+        <v>106</v>
+      </c>
+      <c r="K6" t="s">
+        <v>106</v>
+      </c>
+      <c r="L6" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" t="s">
+        <v>279</v>
+      </c>
+      <c r="C7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" t="s">
+        <v>280</v>
+      </c>
+      <c r="C8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" t="s">
+        <v>280</v>
+      </c>
+      <c r="G8" t="s">
+        <v>108</v>
+      </c>
+      <c r="K8" t="s">
+        <v>108</v>
+      </c>
+      <c r="L8" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" t="s">
+        <v>281</v>
+      </c>
+      <c r="C9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F9" t="s">
+        <v>281</v>
+      </c>
+      <c r="G9" t="s">
+        <v>109</v>
+      </c>
+      <c r="K9" t="s">
+        <v>109</v>
+      </c>
+      <c r="L9" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" t="s">
+        <v>282</v>
+      </c>
+      <c r="C10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" t="s">
+        <v>110</v>
+      </c>
+      <c r="F10" t="s">
+        <v>282</v>
+      </c>
+      <c r="G10" t="s">
+        <v>110</v>
+      </c>
+      <c r="K10" t="s">
+        <v>110</v>
+      </c>
+      <c r="L10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>179</v>
+      </c>
+      <c r="B11" t="s">
+        <v>283</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>179</v>
+      </c>
+      <c r="F11" t="s">
+        <v>283</v>
+      </c>
+      <c r="G11">
+        <v>9</v>
+      </c>
+      <c r="K11">
+        <v>9</v>
+      </c>
+      <c r="L11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>180</v>
+      </c>
+      <c r="B12" t="s">
+        <v>284</v>
+      </c>
+      <c r="C12" t="s">
+        <v>179</v>
+      </c>
+      <c r="E12" t="s">
+        <v>180</v>
+      </c>
+      <c r="F12" t="s">
+        <v>284</v>
+      </c>
+      <c r="G12" t="s">
+        <v>179</v>
+      </c>
+      <c r="K12" t="s">
+        <v>179</v>
+      </c>
+      <c r="L12" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>181</v>
+      </c>
+      <c r="B13" t="s">
+        <v>285</v>
+      </c>
+      <c r="C13" t="s">
+        <v>180</v>
+      </c>
+      <c r="E13" t="s">
+        <v>181</v>
+      </c>
+      <c r="F13" t="s">
+        <v>285</v>
+      </c>
+      <c r="G13" t="s">
+        <v>180</v>
+      </c>
+      <c r="K13" t="s">
+        <v>180</v>
+      </c>
+      <c r="L13" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>182</v>
+      </c>
+      <c r="B14" t="s">
+        <v>286</v>
+      </c>
+      <c r="C14" t="s">
+        <v>181</v>
+      </c>
+      <c r="E14" t="s">
+        <v>182</v>
+      </c>
+      <c r="F14" t="s">
+        <v>286</v>
+      </c>
+      <c r="G14" t="s">
+        <v>181</v>
+      </c>
+      <c r="K14" t="s">
+        <v>181</v>
+      </c>
+      <c r="L14" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>183</v>
+      </c>
+      <c r="B15" t="s">
+        <v>287</v>
+      </c>
+      <c r="C15" t="s">
+        <v>182</v>
+      </c>
+      <c r="E15" t="s">
+        <v>183</v>
+      </c>
+      <c r="F15" t="s">
+        <v>287</v>
+      </c>
+      <c r="G15" t="s">
+        <v>182</v>
+      </c>
+      <c r="K15" t="s">
+        <v>182</v>
+      </c>
+      <c r="L15" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>184</v>
+      </c>
+      <c r="B16" t="s">
+        <v>288</v>
+      </c>
+      <c r="C16" t="s">
+        <v>183</v>
+      </c>
+      <c r="E16" t="s">
+        <v>184</v>
+      </c>
+      <c r="F16" t="s">
+        <v>288</v>
+      </c>
+      <c r="G16" t="s">
+        <v>183</v>
+      </c>
+      <c r="K16" t="s">
+        <v>183</v>
+      </c>
+      <c r="L16" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>185</v>
+      </c>
+      <c r="B17" t="s">
+        <v>318</v>
+      </c>
+      <c r="C17" t="s">
+        <v>184</v>
+      </c>
+      <c r="E17" t="s">
+        <v>185</v>
+      </c>
+      <c r="F17" t="s">
+        <v>318</v>
+      </c>
+      <c r="G17" t="s">
+        <v>184</v>
+      </c>
+      <c r="K17" t="s">
+        <v>184</v>
+      </c>
+      <c r="L17" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>186</v>
+      </c>
+      <c r="B18" t="s">
+        <v>319</v>
+      </c>
+      <c r="C18" t="s">
+        <v>185</v>
+      </c>
+      <c r="E18" t="s">
+        <v>186</v>
+      </c>
+      <c r="F18" t="s">
+        <v>319</v>
+      </c>
+      <c r="G18" t="s">
+        <v>185</v>
+      </c>
+      <c r="K18" t="s">
+        <v>185</v>
+      </c>
+      <c r="L18" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" t="s">
+        <v>289</v>
+      </c>
+      <c r="C19" t="s">
+        <v>186</v>
+      </c>
+      <c r="E19" t="s">
+        <v>111</v>
+      </c>
+      <c r="F19" t="s">
+        <v>289</v>
+      </c>
+      <c r="G19" t="s">
+        <v>186</v>
+      </c>
+      <c r="K19" t="s">
+        <v>186</v>
+      </c>
+      <c r="L19" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20" t="s">
+        <v>290</v>
+      </c>
+      <c r="C20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E20" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" t="s">
+        <v>290</v>
+      </c>
+      <c r="G20" t="s">
+        <v>111</v>
+      </c>
+      <c r="K20" t="s">
+        <v>111</v>
+      </c>
+      <c r="L20" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" t="s">
+        <v>291</v>
+      </c>
+      <c r="C21" t="s">
+        <v>112</v>
+      </c>
+      <c r="E21" t="s">
+        <v>113</v>
+      </c>
+      <c r="F21" t="s">
+        <v>291</v>
+      </c>
+      <c r="G21" t="s">
+        <v>112</v>
+      </c>
+      <c r="K21" t="s">
+        <v>112</v>
+      </c>
+      <c r="L21" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" t="s">
+        <v>292</v>
+      </c>
+      <c r="C22" t="s">
+        <v>113</v>
+      </c>
+      <c r="E22" t="s">
+        <v>114</v>
+      </c>
+      <c r="F22" t="s">
+        <v>292</v>
+      </c>
+      <c r="G22" t="s">
+        <v>113</v>
+      </c>
+      <c r="K22" t="s">
+        <v>113</v>
+      </c>
+      <c r="L22" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23" t="s">
+        <v>293</v>
+      </c>
+      <c r="C23" t="s">
+        <v>114</v>
+      </c>
+      <c r="E23" t="s">
+        <v>115</v>
+      </c>
+      <c r="F23" t="s">
+        <v>293</v>
+      </c>
+      <c r="G23" t="s">
+        <v>114</v>
+      </c>
+      <c r="K23" t="s">
+        <v>114</v>
+      </c>
+      <c r="L23" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" t="s">
+        <v>294</v>
+      </c>
+      <c r="C24" t="s">
+        <v>115</v>
+      </c>
+      <c r="E24" t="s">
+        <v>116</v>
+      </c>
+      <c r="F24" t="s">
+        <v>294</v>
+      </c>
+      <c r="G24" t="s">
+        <v>115</v>
+      </c>
+      <c r="K24" t="s">
+        <v>115</v>
+      </c>
+      <c r="L24" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" t="s">
+        <v>295</v>
+      </c>
+      <c r="C25" t="s">
+        <v>116</v>
+      </c>
+      <c r="E25" t="s">
+        <v>117</v>
+      </c>
+      <c r="F25" t="s">
+        <v>295</v>
+      </c>
+      <c r="G25" t="s">
+        <v>116</v>
+      </c>
+      <c r="K25" t="s">
+        <v>116</v>
+      </c>
+      <c r="L25" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>118</v>
+      </c>
+      <c r="B26" t="s">
+        <v>296</v>
+      </c>
+      <c r="C26" t="s">
+        <v>117</v>
+      </c>
+      <c r="E26" t="s">
+        <v>118</v>
+      </c>
+      <c r="F26" t="s">
+        <v>296</v>
+      </c>
+      <c r="G26" t="s">
+        <v>117</v>
+      </c>
+      <c r="K26" t="s">
+        <v>117</v>
+      </c>
+      <c r="L26" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>297</v>
+      </c>
+      <c r="B27" t="s">
+        <v>298</v>
+      </c>
+      <c r="C27" t="s">
+        <v>118</v>
+      </c>
+      <c r="E27" t="s">
+        <v>297</v>
+      </c>
+      <c r="F27" t="s">
+        <v>298</v>
+      </c>
+      <c r="G27" t="s">
+        <v>118</v>
+      </c>
+      <c r="K27" t="s">
+        <v>118</v>
+      </c>
+      <c r="L27" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>119</v>
+      </c>
+      <c r="B28" t="s">
+        <v>299</v>
+      </c>
+      <c r="C28" t="s">
+        <v>297</v>
+      </c>
+      <c r="E28" t="s">
+        <v>119</v>
+      </c>
+      <c r="F28" t="s">
+        <v>299</v>
+      </c>
+      <c r="G28" t="s">
+        <v>297</v>
+      </c>
+      <c r="K28" t="s">
+        <v>297</v>
+      </c>
+      <c r="L28" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>300</v>
+      </c>
+      <c r="B29" t="s">
+        <v>301</v>
+      </c>
+      <c r="C29" t="s">
+        <v>119</v>
+      </c>
+      <c r="E29" t="s">
+        <v>300</v>
+      </c>
+      <c r="F29" t="s">
+        <v>301</v>
+      </c>
+      <c r="G29" t="s">
+        <v>119</v>
+      </c>
+      <c r="K29" t="s">
+        <v>119</v>
+      </c>
+      <c r="L29" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>187</v>
+      </c>
+      <c r="B30" t="s">
+        <v>302</v>
+      </c>
+      <c r="C30" t="s">
+        <v>300</v>
+      </c>
+      <c r="E30" t="s">
+        <v>187</v>
+      </c>
+      <c r="F30" t="s">
+        <v>302</v>
+      </c>
+      <c r="G30" t="s">
+        <v>300</v>
+      </c>
+      <c r="K30" t="s">
+        <v>300</v>
+      </c>
+      <c r="L30" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="E31" t="s">
+        <v>303</v>
+      </c>
+      <c r="F31" t="s">
+        <v>316</v>
+      </c>
+      <c r="G31" t="s">
+        <v>187</v>
+      </c>
+      <c r="K31" t="s">
+        <v>187</v>
+      </c>
+      <c r="L31" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="E32" t="s">
+        <v>188</v>
+      </c>
+      <c r="F32" t="s">
+        <v>317</v>
+      </c>
+      <c r="G32" t="s">
+        <v>303</v>
+      </c>
+      <c r="K32" t="s">
+        <v>303</v>
+      </c>
+      <c r="L32" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="E33" t="s">
+        <v>189</v>
+      </c>
+      <c r="F33" t="s">
+        <v>306</v>
+      </c>
+      <c r="G33" t="s">
+        <v>188</v>
+      </c>
+      <c r="K33" t="s">
+        <v>188</v>
+      </c>
+      <c r="L33" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="E34" t="s">
+        <v>190</v>
+      </c>
+      <c r="F34" t="s">
+        <v>308</v>
+      </c>
+      <c r="G34" t="s">
+        <v>189</v>
+      </c>
+      <c r="K34" t="s">
+        <v>189</v>
+      </c>
+      <c r="L34" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="E35" t="s">
+        <v>191</v>
+      </c>
+      <c r="F35" t="s">
+        <v>309</v>
+      </c>
+      <c r="G35" t="s">
+        <v>190</v>
+      </c>
+      <c r="K35" t="s">
+        <v>190</v>
+      </c>
+      <c r="L35" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="E36" t="s">
+        <v>192</v>
+      </c>
+      <c r="F36" t="s">
+        <v>310</v>
+      </c>
+      <c r="G36" t="s">
+        <v>191</v>
+      </c>
+      <c r="K36" t="s">
+        <v>191</v>
+      </c>
+      <c r="L36" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>189</v>
+      </c>
+      <c r="B37" t="s">
+        <v>305</v>
+      </c>
+      <c r="C37">
+        <v>23</v>
+      </c>
+      <c r="E37" t="s">
+        <v>193</v>
+      </c>
+      <c r="F37" t="s">
+        <v>305</v>
+      </c>
+      <c r="G37" t="s">
+        <v>192</v>
+      </c>
+      <c r="K37" t="s">
+        <v>192</v>
+      </c>
+      <c r="L37" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>190</v>
+      </c>
+      <c r="B38" t="s">
+        <v>307</v>
+      </c>
+      <c r="C38">
+        <v>24</v>
+      </c>
+      <c r="E38" t="s">
+        <v>194</v>
+      </c>
+      <c r="F38" t="s">
+        <v>307</v>
+      </c>
+      <c r="G38" t="s">
+        <v>193</v>
+      </c>
+      <c r="K38" t="s">
+        <v>193</v>
+      </c>
+      <c r="L38" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>191</v>
+      </c>
+      <c r="C39">
+        <v>25</v>
+      </c>
+      <c r="E39" t="s">
+        <v>311</v>
+      </c>
+      <c r="F39" t="s">
+        <v>312</v>
+      </c>
+      <c r="G39" t="s">
+        <v>194</v>
+      </c>
+      <c r="K39" t="s">
+        <v>194</v>
+      </c>
+      <c r="L39" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="E40" t="s">
+        <v>195</v>
+      </c>
+      <c r="K40">
+        <v>26</v>
+      </c>
+      <c r="L40" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>303</v>
+      </c>
+      <c r="B41" t="s">
+        <v>304</v>
+      </c>
+      <c r="C41">
+        <v>26</v>
+      </c>
+      <c r="K41">
+        <v>27</v>
+      </c>
+      <c r="L41" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>188</v>
+      </c>
+      <c r="B42" t="s">
+        <v>304</v>
+      </c>
+      <c r="C42">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9501AB9E-07B8-4504-851C-A815E5CC4DA5}">
   <dimension ref="A1:X121"/>
   <sheetViews>
@@ -3776,7 +4932,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08AB0973-A846-4BA3-BEDA-C53E73ED6D9C}">
   <dimension ref="A1:E36"/>
   <sheetViews>
